--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2803.653374216546</v>
+        <v>3146.081802614693</v>
       </c>
       <c r="AB2" t="n">
-        <v>3836.082235060675</v>
+        <v>4304.607917671116</v>
       </c>
       <c r="AC2" t="n">
-        <v>3469.971930521571</v>
+        <v>3893.782179563579</v>
       </c>
       <c r="AD2" t="n">
-        <v>2803653.374216546</v>
+        <v>3146081.802614693</v>
       </c>
       <c r="AE2" t="n">
-        <v>3836082.235060676</v>
+        <v>4304607.917671116</v>
       </c>
       <c r="AF2" t="n">
         <v>2.330019939675127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.36328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3469971.930521571</v>
+        <v>3893782.179563579</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1407.911318376236</v>
+        <v>1623.22462090512</v>
       </c>
       <c r="AB3" t="n">
-        <v>1926.366378466042</v>
+        <v>2220.967537938564</v>
       </c>
       <c r="AC3" t="n">
-        <v>1742.516674977435</v>
+        <v>2009.001513265224</v>
       </c>
       <c r="AD3" t="n">
-        <v>1407911.318376236</v>
+        <v>1623224.620905119</v>
       </c>
       <c r="AE3" t="n">
-        <v>1926366.378466042</v>
+        <v>2220967.537938564</v>
       </c>
       <c r="AF3" t="n">
         <v>3.669449922586148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.7734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1742516.674977435</v>
+        <v>2009001.513265224</v>
       </c>
     </row>
     <row r="4">
@@ -4664,28 +4664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1169.136889198224</v>
+        <v>1364.838983767629</v>
       </c>
       <c r="AB4" t="n">
-        <v>1599.664670480321</v>
+        <v>1867.432910037253</v>
       </c>
       <c r="AC4" t="n">
-        <v>1446.994919473144</v>
+        <v>1689.207734061847</v>
       </c>
       <c r="AD4" t="n">
-        <v>1169136.889198224</v>
+        <v>1364838.983767629</v>
       </c>
       <c r="AE4" t="n">
-        <v>1599664.670480321</v>
+        <v>1867432.910037253</v>
       </c>
       <c r="AF4" t="n">
         <v>4.171615627122443e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.62369791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1446994.919473144</v>
+        <v>1689207.734061847</v>
       </c>
     </row>
     <row r="5">
@@ -4770,28 +4770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1066.731781171756</v>
+        <v>1242.823678811541</v>
       </c>
       <c r="AB5" t="n">
-        <v>1459.549483883992</v>
+        <v>1700.486186860988</v>
       </c>
       <c r="AC5" t="n">
-        <v>1320.25212963267</v>
+        <v>1538.194171834327</v>
       </c>
       <c r="AD5" t="n">
-        <v>1066731.781171756</v>
+        <v>1242823.678811541</v>
       </c>
       <c r="AE5" t="n">
-        <v>1459549.483883992</v>
+        <v>1700486.186860988</v>
       </c>
       <c r="AF5" t="n">
         <v>4.44596251707074e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.29947916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1320252.12963267</v>
+        <v>1538194.171834327</v>
       </c>
     </row>
     <row r="6">
@@ -4876,28 +4876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>998.1315224534443</v>
+        <v>1174.256574482153</v>
       </c>
       <c r="AB6" t="n">
-        <v>1365.687583475778</v>
+        <v>1606.669649750367</v>
       </c>
       <c r="AC6" t="n">
-        <v>1235.348277263411</v>
+        <v>1453.331353353208</v>
       </c>
       <c r="AD6" t="n">
-        <v>998131.5224534443</v>
+        <v>1174256.574482153</v>
       </c>
       <c r="AE6" t="n">
-        <v>1365687.583475778</v>
+        <v>1606669.649750367</v>
       </c>
       <c r="AF6" t="n">
         <v>4.620020912978184e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.97135416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1235348.277263411</v>
+        <v>1453331.353353207</v>
       </c>
     </row>
     <row r="7">
@@ -4982,28 +4982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>966.2410706947151</v>
+        <v>1132.544447064152</v>
       </c>
       <c r="AB7" t="n">
-        <v>1322.053660472047</v>
+        <v>1549.597276807872</v>
       </c>
       <c r="AC7" t="n">
-        <v>1195.878714630561</v>
+        <v>1401.705887582765</v>
       </c>
       <c r="AD7" t="n">
-        <v>966241.070694715</v>
+        <v>1132544.447064152</v>
       </c>
       <c r="AE7" t="n">
-        <v>1322053.660472047</v>
+        <v>1549597.276807872</v>
       </c>
       <c r="AF7" t="n">
         <v>4.737908109098322e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>33.125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1195878.71463056</v>
+        <v>1401705.887582765</v>
       </c>
     </row>
     <row r="8">
@@ -5088,28 +5088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>931.5958886881519</v>
+        <v>1097.966584865293</v>
       </c>
       <c r="AB8" t="n">
-        <v>1274.650594013109</v>
+        <v>1502.286320279775</v>
       </c>
       <c r="AC8" t="n">
-        <v>1152.999730303842</v>
+        <v>1358.910222344365</v>
       </c>
       <c r="AD8" t="n">
-        <v>931595.888688152</v>
+        <v>1097966.584865293</v>
       </c>
       <c r="AE8" t="n">
-        <v>1274650.594013109</v>
+        <v>1502286.320279775</v>
       </c>
       <c r="AF8" t="n">
         <v>4.825660541384069e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>33</v>
+        <v>32.52604166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1152999.730303842</v>
+        <v>1358910.222344365</v>
       </c>
     </row>
     <row r="9">
@@ -5194,28 +5194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>914.8693911156756</v>
+        <v>1071.418411633545</v>
       </c>
       <c r="AB9" t="n">
-        <v>1251.764662113455</v>
+        <v>1465.961938441355</v>
       </c>
       <c r="AC9" t="n">
-        <v>1132.297999624083</v>
+        <v>1326.052588527014</v>
       </c>
       <c r="AD9" t="n">
-        <v>914869.3911156757</v>
+        <v>1071418.411633545</v>
       </c>
       <c r="AE9" t="n">
-        <v>1251764.662113454</v>
+        <v>1465961.938441355</v>
       </c>
       <c r="AF9" t="n">
         <v>4.881108506839349e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>33</v>
+        <v>32.15494791666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1132297.999624083</v>
+        <v>1326052.588527014</v>
       </c>
     </row>
     <row r="10">
@@ -5300,28 +5300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>887.0545638270255</v>
+        <v>1053.391094585386</v>
       </c>
       <c r="AB10" t="n">
-        <v>1213.707188313547</v>
+        <v>1441.296167946965</v>
       </c>
       <c r="AC10" t="n">
-        <v>1097.872677709639</v>
+        <v>1303.740884549983</v>
       </c>
       <c r="AD10" t="n">
-        <v>887054.5638270255</v>
+        <v>1053391.094585386</v>
       </c>
       <c r="AE10" t="n">
-        <v>1213707.188313548</v>
+        <v>1441296.167946965</v>
       </c>
       <c r="AF10" t="n">
         <v>4.938002940958679e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>31.78385416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1097872.67770964</v>
+        <v>1303740.884549983</v>
       </c>
     </row>
     <row r="11">
@@ -5406,28 +5406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>873.0544494274507</v>
+        <v>1029.670789753024</v>
       </c>
       <c r="AB11" t="n">
-        <v>1194.551614150593</v>
+        <v>1408.841000409335</v>
       </c>
       <c r="AC11" t="n">
-        <v>1080.54528465978</v>
+        <v>1274.38319265103</v>
       </c>
       <c r="AD11" t="n">
-        <v>873054.4494274507</v>
+        <v>1029670.789753024</v>
       </c>
       <c r="AE11" t="n">
-        <v>1194551.614150593</v>
+        <v>1408841.000409335</v>
       </c>
       <c r="AF11" t="n">
         <v>4.975370048113325e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>32</v>
+        <v>31.54296875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1080545.28465978</v>
+        <v>1274383.19265103</v>
       </c>
     </row>
     <row r="12">
@@ -5512,28 +5512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>858.3834425903918</v>
+        <v>1014.89829768948</v>
       </c>
       <c r="AB12" t="n">
-        <v>1174.478095356987</v>
+        <v>1388.62862505164</v>
       </c>
       <c r="AC12" t="n">
-        <v>1062.387554326476</v>
+        <v>1256.099858029227</v>
       </c>
       <c r="AD12" t="n">
-        <v>858383.4425903918</v>
+        <v>1014898.29768948</v>
       </c>
       <c r="AE12" t="n">
-        <v>1174478.095356987</v>
+        <v>1388628.62505164</v>
       </c>
       <c r="AF12" t="n">
         <v>5.018040873702823e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>31.27604166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1062387.554326476</v>
+        <v>1256099.858029227</v>
       </c>
     </row>
     <row r="13">
@@ -5618,28 +5618,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>847.7962687681288</v>
+        <v>1004.311123867217</v>
       </c>
       <c r="AB13" t="n">
-        <v>1159.992257060223</v>
+        <v>1374.142786754875</v>
       </c>
       <c r="AC13" t="n">
-        <v>1049.284224105752</v>
+        <v>1242.996527808504</v>
       </c>
       <c r="AD13" t="n">
-        <v>847796.2687681288</v>
+        <v>1004311.123867217</v>
       </c>
       <c r="AE13" t="n">
-        <v>1159992.257060223</v>
+        <v>1374142.786754875</v>
       </c>
       <c r="AF13" t="n">
         <v>5.037327122556833e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>32</v>
+        <v>31.15885416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1049284.224105752</v>
+        <v>1242996.527808503</v>
       </c>
     </row>
     <row r="14">
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>825.4400474547714</v>
+        <v>982.022222361564</v>
       </c>
       <c r="AB14" t="n">
-        <v>1129.403488772411</v>
+        <v>1343.646128397905</v>
       </c>
       <c r="AC14" t="n">
-        <v>1021.614804931723</v>
+        <v>1215.410427722793</v>
       </c>
       <c r="AD14" t="n">
-        <v>825440.0474547714</v>
+        <v>982022.2223615639</v>
       </c>
       <c r="AE14" t="n">
-        <v>1129403.488772411</v>
+        <v>1343646.128397905</v>
       </c>
       <c r="AF14" t="n">
         <v>5.063604636620422e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.99609375</v>
       </c>
       <c r="AH14" t="n">
-        <v>1021614.804931723</v>
+        <v>1215410.427722794</v>
       </c>
     </row>
     <row r="15">
@@ -5830,28 +5830,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>817.6631577638271</v>
+        <v>974.24533267062</v>
       </c>
       <c r="AB15" t="n">
-        <v>1118.762805205102</v>
+        <v>1333.005444830597</v>
       </c>
       <c r="AC15" t="n">
-        <v>1011.989653269786</v>
+        <v>1205.785276060856</v>
       </c>
       <c r="AD15" t="n">
-        <v>817663.1577638271</v>
+        <v>974245.3326706199</v>
       </c>
       <c r="AE15" t="n">
-        <v>1118762.805205103</v>
+        <v>1333005.444830597</v>
       </c>
       <c r="AF15" t="n">
         <v>5.079274713814306e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>31</v>
+        <v>30.8984375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1011989.653269786</v>
+        <v>1205785.276060856</v>
       </c>
     </row>
     <row r="16">
@@ -5936,28 +5936,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>816.1174488096328</v>
+        <v>972.6996237164257</v>
       </c>
       <c r="AB16" t="n">
-        <v>1116.647898022107</v>
+        <v>1330.890537647602</v>
       </c>
       <c r="AC16" t="n">
-        <v>1010.076589860045</v>
+        <v>1203.872212651115</v>
       </c>
       <c r="AD16" t="n">
-        <v>816117.4488096328</v>
+        <v>972699.6237164256</v>
       </c>
       <c r="AE16" t="n">
-        <v>1116647.898022107</v>
+        <v>1330890.537647602</v>
       </c>
       <c r="AF16" t="n">
         <v>5.086265979023884e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>31</v>
+        <v>30.859375</v>
       </c>
       <c r="AH16" t="n">
-        <v>1010076.589860045</v>
+        <v>1203872.212651115</v>
       </c>
     </row>
   </sheetData>
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2017.828171040031</v>
+        <v>2308.142149286934</v>
       </c>
       <c r="AB2" t="n">
-        <v>2760.88152391314</v>
+        <v>3158.101916699529</v>
       </c>
       <c r="AC2" t="n">
-        <v>2497.386866192425</v>
+        <v>2856.697102193485</v>
       </c>
       <c r="AD2" t="n">
-        <v>2017828.171040031</v>
+        <v>2308142.149286935</v>
       </c>
       <c r="AE2" t="n">
-        <v>2760881.523913139</v>
+        <v>3158101.916699529</v>
       </c>
       <c r="AF2" t="n">
         <v>3.020852481713046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.84895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2497386.866192425</v>
+        <v>2856697.102193485</v>
       </c>
     </row>
     <row r="3">
@@ -6339,28 +6339,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1172.652841959896</v>
+        <v>1375.876043274605</v>
       </c>
       <c r="AB3" t="n">
-        <v>1604.475352161729</v>
+        <v>1882.534301775397</v>
       </c>
       <c r="AC3" t="n">
-        <v>1451.346476446713</v>
+        <v>1702.86787016744</v>
       </c>
       <c r="AD3" t="n">
-        <v>1172652.841959896</v>
+        <v>1375876.043274605</v>
       </c>
       <c r="AE3" t="n">
-        <v>1604475.352161729</v>
+        <v>1882534.301775397</v>
       </c>
       <c r="AF3" t="n">
         <v>4.33502354911563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.61588541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1451346.476446713</v>
+        <v>1702867.87016744</v>
       </c>
     </row>
     <row r="4">
@@ -6445,28 +6445,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000.303380042566</v>
+        <v>1174.553264744512</v>
       </c>
       <c r="AB4" t="n">
-        <v>1368.659214844809</v>
+        <v>1607.075594456377</v>
       </c>
       <c r="AC4" t="n">
-        <v>1238.036300305292</v>
+        <v>1453.698555266223</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000303.380042566</v>
+        <v>1174553.264744512</v>
       </c>
       <c r="AE4" t="n">
-        <v>1368659.214844808</v>
+        <v>1607075.594456377</v>
       </c>
       <c r="AF4" t="n">
         <v>4.820649589880012e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1238036.300305292</v>
+        <v>1453698.555266223</v>
       </c>
     </row>
     <row r="5">
@@ -6551,28 +6551,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>920.3582940808028</v>
+        <v>1094.539847945187</v>
       </c>
       <c r="AB5" t="n">
-        <v>1259.27482130365</v>
+        <v>1497.597707648723</v>
       </c>
       <c r="AC5" t="n">
-        <v>1139.091399761741</v>
+        <v>1354.669084322312</v>
       </c>
       <c r="AD5" t="n">
-        <v>920358.2940808028</v>
+        <v>1094539.847945187</v>
       </c>
       <c r="AE5" t="n">
-        <v>1259274.82130365</v>
+        <v>1497597.707648723</v>
       </c>
       <c r="AF5" t="n">
         <v>5.074937207097213e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.84114583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1139091.399761741</v>
+        <v>1354669.084322312</v>
       </c>
     </row>
     <row r="6">
@@ -6657,28 +6657,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>874.441684688299</v>
+        <v>1038.976854821356</v>
       </c>
       <c r="AB6" t="n">
-        <v>1196.449690634986</v>
+        <v>1421.573969190442</v>
       </c>
       <c r="AC6" t="n">
-        <v>1082.26221138847</v>
+        <v>1285.900944762502</v>
       </c>
       <c r="AD6" t="n">
-        <v>874441.684688299</v>
+        <v>1038976.854821356</v>
       </c>
       <c r="AE6" t="n">
-        <v>1196449.690634986</v>
+        <v>1421573.969190442</v>
       </c>
       <c r="AF6" t="n">
         <v>5.229778318411006e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.83854166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1082262.21138847</v>
+        <v>1285900.944762502</v>
       </c>
     </row>
     <row r="7">
@@ -6763,28 +6763,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>846.7628063102904</v>
+        <v>1001.584272904316</v>
       </c>
       <c r="AB7" t="n">
-        <v>1158.578228132262</v>
+        <v>1370.41178896726</v>
       </c>
       <c r="AC7" t="n">
-        <v>1048.005148114074</v>
+        <v>1239.62161121325</v>
       </c>
       <c r="AD7" t="n">
-        <v>846762.8063102905</v>
+        <v>1001584.272904316</v>
       </c>
       <c r="AE7" t="n">
-        <v>1158578.228132262</v>
+        <v>1370411.788967259</v>
       </c>
       <c r="AF7" t="n">
         <v>5.344260502925803e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.13541666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1048005.148114074</v>
+        <v>1239621.61121325</v>
       </c>
     </row>
     <row r="8">
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>816.7372220748982</v>
+        <v>981.2382267891744</v>
       </c>
       <c r="AB8" t="n">
-        <v>1117.49589914611</v>
+        <v>1342.573431068318</v>
       </c>
       <c r="AC8" t="n">
-        <v>1010.84365894695</v>
+        <v>1214.440107120803</v>
       </c>
       <c r="AD8" t="n">
-        <v>816737.2220748982</v>
+        <v>981238.2267891744</v>
       </c>
       <c r="AE8" t="n">
-        <v>1117495.89914611</v>
+        <v>1342573.431068318</v>
       </c>
       <c r="AF8" t="n">
         <v>5.414954570782868e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.71223958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1010843.65894695</v>
+        <v>1214440.107120803</v>
       </c>
     </row>
     <row r="9">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>796.9938675629606</v>
+        <v>951.7811687382052</v>
       </c>
       <c r="AB9" t="n">
-        <v>1090.482170487549</v>
+        <v>1302.268984689299</v>
       </c>
       <c r="AC9" t="n">
-        <v>986.4080826375557</v>
+        <v>1177.982260536551</v>
       </c>
       <c r="AD9" t="n">
-        <v>796993.8675629606</v>
+        <v>951781.1687382052</v>
       </c>
       <c r="AE9" t="n">
-        <v>1090482.170487549</v>
+        <v>1302268.984689299</v>
       </c>
       <c r="AF9" t="n">
         <v>5.482483232616481e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.32161458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>986408.0826375557</v>
+        <v>1177982.260536551</v>
       </c>
     </row>
     <row r="10">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>779.4834158162568</v>
+        <v>934.2707169915014</v>
       </c>
       <c r="AB10" t="n">
-        <v>1066.523597901099</v>
+        <v>1278.310412102848</v>
       </c>
       <c r="AC10" t="n">
-        <v>964.7360825926883</v>
+        <v>1156.310260491683</v>
       </c>
       <c r="AD10" t="n">
-        <v>779483.4158162568</v>
+        <v>934270.7169915014</v>
       </c>
       <c r="AE10" t="n">
-        <v>1066523.597901099</v>
+        <v>1278310.412102848</v>
       </c>
       <c r="AF10" t="n">
         <v>5.530755674474103e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>31.04817708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>964736.0825926883</v>
+        <v>1156310.260491683</v>
       </c>
     </row>
     <row r="11">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>760.5236258980558</v>
+        <v>915.378246881005</v>
       </c>
       <c r="AB11" t="n">
-        <v>1040.581976888119</v>
+        <v>1252.46090102071</v>
       </c>
       <c r="AC11" t="n">
-        <v>941.2702934798931</v>
+        <v>1132.927790467207</v>
       </c>
       <c r="AD11" t="n">
-        <v>760523.6258980558</v>
+        <v>915378.246881005</v>
       </c>
       <c r="AE11" t="n">
-        <v>1040581.976888119</v>
+        <v>1252460.90102071</v>
       </c>
       <c r="AF11" t="n">
         <v>5.550011894450094e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.94401041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>941270.2934798931</v>
+        <v>1132927.790467207</v>
       </c>
     </row>
     <row r="12">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>760.8601388775651</v>
+        <v>915.7147598605141</v>
       </c>
       <c r="AB12" t="n">
-        <v>1041.042408792588</v>
+        <v>1252.921332925179</v>
       </c>
       <c r="AC12" t="n">
-        <v>941.68678240962</v>
+        <v>1133.344279396934</v>
       </c>
       <c r="AD12" t="n">
-        <v>760860.138877565</v>
+        <v>915714.7598605141</v>
       </c>
       <c r="AE12" t="n">
-        <v>1041042.408792588</v>
+        <v>1252921.332925179</v>
       </c>
       <c r="AF12" t="n">
         <v>5.558452977179297e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.8984375</v>
       </c>
       <c r="AH12" t="n">
-        <v>941686.78240962</v>
+        <v>1133344.279396934</v>
       </c>
     </row>
     <row r="13">
@@ -7399,28 +7399,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>762.8140232080103</v>
+        <v>917.6686441909594</v>
       </c>
       <c r="AB13" t="n">
-        <v>1043.715799532796</v>
+        <v>1255.594723665387</v>
       </c>
       <c r="AC13" t="n">
-        <v>944.1050284897103</v>
+        <v>1135.762525477025</v>
       </c>
       <c r="AD13" t="n">
-        <v>762814.0232080104</v>
+        <v>917668.6441909594</v>
       </c>
       <c r="AE13" t="n">
-        <v>1043715.799532796</v>
+        <v>1255594.723665387</v>
       </c>
       <c r="AF13" t="n">
         <v>5.558716761014584e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.89192708333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>944105.0284897103</v>
+        <v>1135762.525477025</v>
       </c>
     </row>
   </sheetData>
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>925.5529776625958</v>
+        <v>1121.949763359291</v>
       </c>
       <c r="AB2" t="n">
-        <v>1266.382416553524</v>
+        <v>1535.101163158424</v>
       </c>
       <c r="AC2" t="n">
-        <v>1145.52065609654</v>
+        <v>1388.593262674598</v>
       </c>
       <c r="AD2" t="n">
-        <v>925552.9776625958</v>
+        <v>1121949.763359291</v>
       </c>
       <c r="AE2" t="n">
-        <v>1266382.416553524</v>
+        <v>1535101.163158424</v>
       </c>
       <c r="AF2" t="n">
         <v>6.015039091833534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.85026041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1145520.65609654</v>
+        <v>1388593.262674598</v>
       </c>
     </row>
     <row r="3">
@@ -7802,28 +7802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>702.940074612823</v>
+        <v>861.8817789616885</v>
       </c>
       <c r="AB3" t="n">
-        <v>961.7936216126732</v>
+        <v>1179.264673515904</v>
       </c>
       <c r="AC3" t="n">
-        <v>870.001388251785</v>
+        <v>1066.71730818391</v>
       </c>
       <c r="AD3" t="n">
-        <v>702940.074612823</v>
+        <v>861881.7789616885</v>
       </c>
       <c r="AE3" t="n">
-        <v>961793.6216126732</v>
+        <v>1179264.673515904</v>
       </c>
       <c r="AF3" t="n">
         <v>7.177031096107675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.3984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>870001.388251785</v>
+        <v>1066717.30818391</v>
       </c>
     </row>
     <row r="4">
@@ -7908,28 +7908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>635.5418713526367</v>
+        <v>794.516730090426</v>
       </c>
       <c r="AB4" t="n">
-        <v>869.5764265132107</v>
+        <v>1087.092841714035</v>
       </c>
       <c r="AC4" t="n">
-        <v>786.585272824969</v>
+        <v>983.3422266452329</v>
       </c>
       <c r="AD4" t="n">
-        <v>635541.8713526367</v>
+        <v>794516.730090426</v>
       </c>
       <c r="AE4" t="n">
-        <v>869576.4265132106</v>
+        <v>1087092.841714035</v>
       </c>
       <c r="AF4" t="n">
         <v>7.532329665221916e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.82291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>786585.272824969</v>
+        <v>983342.2266452329</v>
       </c>
     </row>
     <row r="5">
@@ -8014,28 +8014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>634.2419153462541</v>
+        <v>793.2167740840434</v>
       </c>
       <c r="AB5" t="n">
-        <v>867.7977693552666</v>
+        <v>1085.314184556091</v>
       </c>
       <c r="AC5" t="n">
-        <v>784.9763682098181</v>
+        <v>981.7333220300819</v>
       </c>
       <c r="AD5" t="n">
-        <v>634241.9153462541</v>
+        <v>793216.7740840435</v>
       </c>
       <c r="AE5" t="n">
-        <v>867797.7693552666</v>
+        <v>1085314.184556091</v>
       </c>
       <c r="AF5" t="n">
         <v>7.558838988513342e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.71223958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>784976.3682098181</v>
+        <v>981733.3220300819</v>
       </c>
     </row>
   </sheetData>
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1225.866380528292</v>
+        <v>1443.931328064526</v>
       </c>
       <c r="AB2" t="n">
-        <v>1677.284463246645</v>
+        <v>1975.650544812235</v>
       </c>
       <c r="AC2" t="n">
-        <v>1517.206788157914</v>
+        <v>1787.097229658309</v>
       </c>
       <c r="AD2" t="n">
-        <v>1225866.380528292</v>
+        <v>1443931.328064526</v>
       </c>
       <c r="AE2" t="n">
-        <v>1677284.463246645</v>
+        <v>1975650.544812235</v>
       </c>
       <c r="AF2" t="n">
         <v>4.632223237558113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.81119791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1517206.788157914</v>
+        <v>1787097.229658309</v>
       </c>
     </row>
     <row r="3">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>859.2487092484763</v>
+        <v>1029.833486334611</v>
       </c>
       <c r="AB3" t="n">
-        <v>1175.66199137145</v>
+        <v>1409.063609049929</v>
       </c>
       <c r="AC3" t="n">
-        <v>1063.458460966926</v>
+        <v>1274.584555835399</v>
       </c>
       <c r="AD3" t="n">
-        <v>859248.7092484763</v>
+        <v>1029833.486334611</v>
       </c>
       <c r="AE3" t="n">
-        <v>1175661.99137145</v>
+        <v>1409063.609049929</v>
       </c>
       <c r="AF3" t="n">
         <v>5.862976382999627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.40364583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1063458.460966926</v>
+        <v>1274584.555835399</v>
       </c>
     </row>
     <row r="4">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>757.6889657303109</v>
+        <v>918.8584924956712</v>
       </c>
       <c r="AB4" t="n">
-        <v>1036.70346979023</v>
+        <v>1257.222726608296</v>
       </c>
       <c r="AC4" t="n">
-        <v>937.7619456559077</v>
+        <v>1137.235154103979</v>
       </c>
       <c r="AD4" t="n">
-        <v>757688.9657303109</v>
+        <v>918858.4924956711</v>
       </c>
       <c r="AE4" t="n">
-        <v>1036703.469790229</v>
+        <v>1257222.726608296</v>
       </c>
       <c r="AF4" t="n">
         <v>6.295334223729858e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.97526041666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>937761.9456559076</v>
+        <v>1137235.154103979</v>
       </c>
     </row>
     <row r="5">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>707.2678192879812</v>
+        <v>868.4031806345605</v>
       </c>
       <c r="AB5" t="n">
-        <v>967.7150328038447</v>
+        <v>1188.187542988664</v>
       </c>
       <c r="AC5" t="n">
-        <v>875.3576682696239</v>
+        <v>1074.788591517515</v>
       </c>
       <c r="AD5" t="n">
-        <v>707267.8192879811</v>
+        <v>868403.1806345605</v>
       </c>
       <c r="AE5" t="n">
-        <v>967715.0328038447</v>
+        <v>1188187.542988664</v>
       </c>
       <c r="AF5" t="n">
         <v>6.52809323828227e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>875357.6682696239</v>
+        <v>1074788.591517515</v>
       </c>
     </row>
     <row r="6">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>683.8583972920417</v>
+        <v>835.4780341212187</v>
       </c>
       <c r="AB6" t="n">
-        <v>935.6852288781901</v>
+        <v>1143.137904974162</v>
       </c>
       <c r="AC6" t="n">
-        <v>846.3847438765215</v>
+        <v>1034.038427727553</v>
       </c>
       <c r="AD6" t="n">
-        <v>683858.3972920417</v>
+        <v>835478.0341212187</v>
       </c>
       <c r="AE6" t="n">
-        <v>935685.22887819</v>
+        <v>1143137.904974162</v>
       </c>
       <c r="AF6" t="n">
         <v>6.636820394395108e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.27604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>846384.7438765215</v>
+        <v>1034038.427727553</v>
       </c>
     </row>
     <row r="7">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>682.7959405178948</v>
+        <v>834.4155773470717</v>
       </c>
       <c r="AB7" t="n">
-        <v>934.2315286475171</v>
+        <v>1141.684204743489</v>
       </c>
       <c r="AC7" t="n">
-        <v>845.0697827555832</v>
+        <v>1032.723466606615</v>
       </c>
       <c r="AD7" t="n">
-        <v>682795.9405178948</v>
+        <v>834415.5773470717</v>
       </c>
       <c r="AE7" t="n">
-        <v>934231.5286475171</v>
+        <v>1141684.204743489</v>
       </c>
       <c r="AF7" t="n">
         <v>6.651487400791561e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.2109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>845069.7827555832</v>
+        <v>1032723.466606615</v>
       </c>
     </row>
   </sheetData>
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>740.7301296777071</v>
+        <v>916.4695848912926</v>
       </c>
       <c r="AB2" t="n">
-        <v>1013.499642132014</v>
+        <v>1253.95411783282</v>
       </c>
       <c r="AC2" t="n">
-        <v>916.772658742615</v>
+        <v>1134.278496762513</v>
       </c>
       <c r="AD2" t="n">
-        <v>740730.1296777071</v>
+        <v>916469.5848912926</v>
       </c>
       <c r="AE2" t="n">
-        <v>1013499.642132014</v>
+        <v>1253954.11783282</v>
       </c>
       <c r="AF2" t="n">
         <v>7.4890723702915e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.66015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>916772.658742615</v>
+        <v>1134278.496762513</v>
       </c>
     </row>
     <row r="3">
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>604.9530968250399</v>
+        <v>762.0885804297861</v>
       </c>
       <c r="AB3" t="n">
-        <v>827.7235157230623</v>
+        <v>1042.723216719353</v>
       </c>
       <c r="AC3" t="n">
-        <v>748.7267450997033</v>
+        <v>943.2071763868835</v>
       </c>
       <c r="AD3" t="n">
-        <v>604953.0968250399</v>
+        <v>762088.5804297861</v>
       </c>
       <c r="AE3" t="n">
-        <v>827723.5157230623</v>
+        <v>1042723.216719353</v>
       </c>
       <c r="AF3" t="n">
         <v>8.453513414880534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.47395833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>748726.7450997033</v>
+        <v>943207.1763868835</v>
       </c>
     </row>
     <row r="4">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>606.9720516590287</v>
+        <v>764.1075352637748</v>
       </c>
       <c r="AB4" t="n">
-        <v>830.4859387969269</v>
+        <v>1045.485639793217</v>
       </c>
       <c r="AC4" t="n">
-        <v>751.2255263924832</v>
+        <v>945.7059576796635</v>
       </c>
       <c r="AD4" t="n">
-        <v>606972.0516590287</v>
+        <v>764107.5352637748</v>
       </c>
       <c r="AE4" t="n">
-        <v>830485.9387969269</v>
+        <v>1045485.639793217</v>
       </c>
       <c r="AF4" t="n">
         <v>8.461525824083503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.44791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>751225.5263924832</v>
+        <v>945705.9576796634</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2192.566398962069</v>
+        <v>2483.732774700387</v>
       </c>
       <c r="AB2" t="n">
-        <v>2999.966076262792</v>
+        <v>3398.352756901899</v>
       </c>
       <c r="AC2" t="n">
-        <v>2713.65352442299</v>
+        <v>3074.018739401104</v>
       </c>
       <c r="AD2" t="n">
-        <v>2192566.398962069</v>
+        <v>2483732.774700387</v>
       </c>
       <c r="AE2" t="n">
-        <v>2999966.076262792</v>
+        <v>3398352.756901899</v>
       </c>
       <c r="AF2" t="n">
         <v>2.829981909918467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2713653.52442299</v>
+        <v>3074018.739401104</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1230.883353797559</v>
+        <v>1434.635205827655</v>
       </c>
       <c r="AB3" t="n">
-        <v>1684.148907406895</v>
+        <v>1962.931180251779</v>
       </c>
       <c r="AC3" t="n">
-        <v>1523.416099401817</v>
+        <v>1775.591783399763</v>
       </c>
       <c r="AD3" t="n">
-        <v>1230883.353797559</v>
+        <v>1434635.205827655</v>
       </c>
       <c r="AE3" t="n">
-        <v>1684148.907406895</v>
+        <v>1962931.180251779</v>
       </c>
       <c r="AF3" t="n">
         <v>4.152562140331519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.35807291666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1523416.099401817</v>
+        <v>1775591.783399763</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1047.535023260278</v>
+        <v>1222.228420031455</v>
       </c>
       <c r="AB4" t="n">
-        <v>1433.28363280832</v>
+        <v>1672.306845199382</v>
       </c>
       <c r="AC4" t="n">
-        <v>1296.493054519306</v>
+        <v>1512.704226990951</v>
       </c>
       <c r="AD4" t="n">
-        <v>1047535.023260278</v>
+        <v>1222228.420031455</v>
       </c>
       <c r="AE4" t="n">
-        <v>1433283.63280832</v>
+        <v>1672306.845199382</v>
       </c>
       <c r="AF4" t="n">
         <v>4.63649573962629e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.14583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1296493.054519306</v>
+        <v>1512704.226990951</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>959.5477042948401</v>
+        <v>1124.532172367191</v>
       </c>
       <c r="AB5" t="n">
-        <v>1312.895501273254</v>
+        <v>1538.634529090877</v>
       </c>
       <c r="AC5" t="n">
-        <v>1187.594597292142</v>
+        <v>1391.789409121567</v>
       </c>
       <c r="AD5" t="n">
-        <v>959547.7042948401</v>
+        <v>1124532.172367191</v>
       </c>
       <c r="AE5" t="n">
-        <v>1312895.501273253</v>
+        <v>1538634.529090877</v>
       </c>
       <c r="AF5" t="n">
         <v>4.908579683485105e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1187594.597292142</v>
+        <v>1391789.409121567</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>911.9204055869124</v>
+        <v>1076.870708240482</v>
       </c>
       <c r="AB6" t="n">
-        <v>1247.729730012941</v>
+        <v>1473.422011197316</v>
       </c>
       <c r="AC6" t="n">
-        <v>1128.64815578018</v>
+        <v>1332.800682409425</v>
       </c>
       <c r="AD6" t="n">
-        <v>911920.4055869123</v>
+        <v>1076870.708240482</v>
       </c>
       <c r="AE6" t="n">
-        <v>1247729.730012941</v>
+        <v>1473422.011197316</v>
       </c>
       <c r="AF6" t="n">
         <v>5.064571045810974e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.09244791666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1128648.15578018</v>
+        <v>1332800.682409425</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>874.4011899764819</v>
+        <v>1039.317327211271</v>
       </c>
       <c r="AB7" t="n">
-        <v>1196.394283983777</v>
+        <v>1422.039818534905</v>
       </c>
       <c r="AC7" t="n">
-        <v>1082.212092670289</v>
+        <v>1286.322334099354</v>
       </c>
       <c r="AD7" t="n">
-        <v>874401.1899764818</v>
+        <v>1039317.327211271</v>
       </c>
       <c r="AE7" t="n">
-        <v>1196394.283983777</v>
+        <v>1422039.818534905</v>
       </c>
       <c r="AF7" t="n">
         <v>5.174485751608244e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.38932291666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1082212.092670289</v>
+        <v>1286322.334099354</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>844.2884491604867</v>
+        <v>1009.27190620298</v>
       </c>
       <c r="AB8" t="n">
-        <v>1155.192703518967</v>
+        <v>1380.930348000937</v>
       </c>
       <c r="AC8" t="n">
-        <v>1044.942733218259</v>
+        <v>1249.136293735643</v>
       </c>
       <c r="AD8" t="n">
-        <v>844288.4491604867</v>
+        <v>1009271.90620298</v>
       </c>
       <c r="AE8" t="n">
-        <v>1155192.703518967</v>
+        <v>1380930.348000937</v>
       </c>
       <c r="AF8" t="n">
         <v>5.250936963837257e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.9140625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1044942.733218259</v>
+        <v>1249136.293735643</v>
       </c>
     </row>
     <row r="9">
@@ -10389,28 +10389,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>825.8952274588638</v>
+        <v>981.2380866400922</v>
       </c>
       <c r="AB9" t="n">
-        <v>1130.026286135135</v>
+        <v>1342.573239310161</v>
       </c>
       <c r="AC9" t="n">
-        <v>1022.178163388251</v>
+        <v>1214.439933663774</v>
       </c>
       <c r="AD9" t="n">
-        <v>825895.2274588639</v>
+        <v>981238.0866400922</v>
       </c>
       <c r="AE9" t="n">
-        <v>1130026.286135135</v>
+        <v>1342573.239310161</v>
       </c>
       <c r="AF9" t="n">
         <v>5.309884194815185e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.5625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1022178.163388251</v>
+        <v>1214439.933663774</v>
       </c>
     </row>
     <row r="10">
@@ -10495,28 +10495,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>807.4416922272161</v>
+        <v>962.6830661819591</v>
       </c>
       <c r="AB10" t="n">
-        <v>1104.777345118677</v>
+        <v>1317.185441729614</v>
       </c>
       <c r="AC10" t="n">
-        <v>999.3389458652923</v>
+        <v>1191.475111852317</v>
       </c>
       <c r="AD10" t="n">
-        <v>807441.6922272161</v>
+        <v>962683.0661819591</v>
       </c>
       <c r="AE10" t="n">
-        <v>1104777.345118677</v>
+        <v>1317185.441729614</v>
       </c>
       <c r="AF10" t="n">
         <v>5.365999899414259e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>31.23046875</v>
       </c>
       <c r="AH10" t="n">
-        <v>999338.9458652923</v>
+        <v>1191475.111852317</v>
       </c>
     </row>
     <row r="11">
@@ -10601,28 +10601,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>780.9734853776615</v>
+        <v>936.282179140109</v>
       </c>
       <c r="AB11" t="n">
-        <v>1068.562376812243</v>
+        <v>1281.06258335402</v>
       </c>
       <c r="AC11" t="n">
-        <v>966.5802833059964</v>
+        <v>1158.79976838134</v>
       </c>
       <c r="AD11" t="n">
-        <v>780973.4853776615</v>
+        <v>936282.179140109</v>
       </c>
       <c r="AE11" t="n">
-        <v>1068562.376812242</v>
+        <v>1281062.58335402</v>
       </c>
       <c r="AF11" t="n">
         <v>5.406928326163125e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.99609375</v>
       </c>
       <c r="AH11" t="n">
-        <v>966580.2833059964</v>
+        <v>1158799.76838134</v>
       </c>
     </row>
     <row r="12">
@@ -10707,28 +10707,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>774.4487946030149</v>
+        <v>929.7574883654626</v>
       </c>
       <c r="AB12" t="n">
-        <v>1059.63500704533</v>
+        <v>1272.135213587108</v>
       </c>
       <c r="AC12" t="n">
-        <v>958.5049291799954</v>
+        <v>1150.724414255339</v>
       </c>
       <c r="AD12" t="n">
-        <v>774448.7946030149</v>
+        <v>929757.4883654625</v>
       </c>
       <c r="AE12" t="n">
-        <v>1059635.00704533</v>
+        <v>1272135.213587108</v>
       </c>
       <c r="AF12" t="n">
         <v>5.422115604013334e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.90494791666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>958504.9291799954</v>
+        <v>1150724.414255339</v>
       </c>
     </row>
     <row r="13">
@@ -10813,28 +10813,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>773.5356284287016</v>
+        <v>928.844322191149</v>
       </c>
       <c r="AB13" t="n">
-        <v>1058.385572799586</v>
+        <v>1270.885779341363</v>
       </c>
       <c r="AC13" t="n">
-        <v>957.3747391850733</v>
+        <v>1149.594224260417</v>
       </c>
       <c r="AD13" t="n">
-        <v>773535.6284287015</v>
+        <v>928844.322191149</v>
       </c>
       <c r="AE13" t="n">
-        <v>1058385.572799586</v>
+        <v>1270885.779341363</v>
       </c>
       <c r="AF13" t="n">
         <v>5.430095360171918e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.859375</v>
       </c>
       <c r="AH13" t="n">
-        <v>957374.7391850733</v>
+        <v>1149594.224260417</v>
       </c>
     </row>
   </sheetData>
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>641.2112325038174</v>
+        <v>806.5883976213495</v>
       </c>
       <c r="AB2" t="n">
-        <v>877.3334965548178</v>
+        <v>1103.609829794229</v>
       </c>
       <c r="AC2" t="n">
-        <v>793.602018988921</v>
+        <v>998.2828565647919</v>
       </c>
       <c r="AD2" t="n">
-        <v>641211.2325038174</v>
+        <v>806588.3976213494</v>
       </c>
       <c r="AE2" t="n">
-        <v>877333.4965548178</v>
+        <v>1103609.829794229</v>
       </c>
       <c r="AF2" t="n">
         <v>8.591709728697678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.96744791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>793602.0189889211</v>
+        <v>998282.8565647919</v>
       </c>
     </row>
     <row r="3">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>593.6665311110272</v>
+        <v>749.7868580577264</v>
       </c>
       <c r="AB3" t="n">
-        <v>812.2807385850125</v>
+        <v>1025.891457456213</v>
       </c>
       <c r="AC3" t="n">
-        <v>734.7578049376351</v>
+        <v>927.9818166042949</v>
       </c>
       <c r="AD3" t="n">
-        <v>593666.5311110272</v>
+        <v>749786.8580577264</v>
       </c>
       <c r="AE3" t="n">
-        <v>812280.7385850125</v>
+        <v>1025891.457456213</v>
       </c>
       <c r="AF3" t="n">
         <v>9.068821858637174e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>734757.8049376351</v>
+        <v>927981.8166042948</v>
       </c>
     </row>
   </sheetData>
@@ -11513,28 +11513,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1583.612418410772</v>
+        <v>1832.776306138925</v>
       </c>
       <c r="AB2" t="n">
-        <v>2166.768374918761</v>
+        <v>2507.685398443346</v>
       </c>
       <c r="AC2" t="n">
-        <v>1959.975042295028</v>
+        <v>2268.355423574475</v>
       </c>
       <c r="AD2" t="n">
-        <v>1583612.418410772</v>
+        <v>1832776.306138925</v>
       </c>
       <c r="AE2" t="n">
-        <v>2166768.374918761</v>
+        <v>2507685.398443346</v>
       </c>
       <c r="AF2" t="n">
         <v>3.707260450842323e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.37109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1959975.042295028</v>
+        <v>2268355.423574475</v>
       </c>
     </row>
     <row r="3">
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1011.92699787018</v>
+        <v>1194.005944531962</v>
       </c>
       <c r="AB3" t="n">
-        <v>1384.563161554377</v>
+        <v>1633.69160913323</v>
       </c>
       <c r="AC3" t="n">
-        <v>1252.422396662228</v>
+        <v>1477.774374858129</v>
       </c>
       <c r="AD3" t="n">
-        <v>1011926.99787018</v>
+        <v>1194005.944531962</v>
       </c>
       <c r="AE3" t="n">
-        <v>1384563.161554377</v>
+        <v>1633691.609133231</v>
       </c>
       <c r="AF3" t="n">
         <v>4.989671396739115e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.42838541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1252422.396662228</v>
+        <v>1477774.374858129</v>
       </c>
     </row>
     <row r="4">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>884.3534513684831</v>
+        <v>1047.289675881861</v>
       </c>
       <c r="AB4" t="n">
-        <v>1210.011407083098</v>
+        <v>1432.947937701207</v>
       </c>
       <c r="AC4" t="n">
-        <v>1094.529616652763</v>
+        <v>1296.189397682065</v>
       </c>
       <c r="AD4" t="n">
-        <v>884353.4513684831</v>
+        <v>1047289.675881861</v>
       </c>
       <c r="AE4" t="n">
-        <v>1210011.407083098</v>
+        <v>1432947.937701207</v>
       </c>
       <c r="AF4" t="n">
         <v>5.447736769272592e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.27734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1094529.616652763</v>
+        <v>1296189.397682064</v>
       </c>
     </row>
     <row r="5">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>817.3788132933544</v>
+        <v>980.3481921956553</v>
       </c>
       <c r="AB5" t="n">
-        <v>1118.373752556209</v>
+        <v>1341.35564647191</v>
       </c>
       <c r="AC5" t="n">
-        <v>1011.637731259663</v>
+        <v>1213.338546177104</v>
       </c>
       <c r="AD5" t="n">
-        <v>817378.8132933544</v>
+        <v>980348.1921956553</v>
       </c>
       <c r="AE5" t="n">
-        <v>1118373.752556209</v>
+        <v>1341355.64647191</v>
       </c>
       <c r="AF5" t="n">
         <v>5.685804558378907e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.84505208333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1011637.731259663</v>
+        <v>1213338.546177104</v>
       </c>
     </row>
     <row r="6">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>785.9701824260071</v>
+        <v>939.3179631557914</v>
       </c>
       <c r="AB6" t="n">
-        <v>1075.399078152504</v>
+        <v>1285.216276973616</v>
       </c>
       <c r="AC6" t="n">
-        <v>972.7644994657147</v>
+        <v>1162.557039311627</v>
       </c>
       <c r="AD6" t="n">
-        <v>785970.1824260071</v>
+        <v>939317.9631557914</v>
       </c>
       <c r="AE6" t="n">
-        <v>1075399.078152505</v>
+        <v>1285216.276973616</v>
       </c>
       <c r="AF6" t="n">
         <v>5.830939861135288e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.02473958333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>972764.4994657147</v>
+        <v>1162557.039311627</v>
       </c>
     </row>
     <row r="7">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>750.4941386834413</v>
+        <v>903.8077539944449</v>
       </c>
       <c r="AB7" t="n">
-        <v>1026.859190011335</v>
+        <v>1236.629642199198</v>
       </c>
       <c r="AC7" t="n">
-        <v>928.8571901225773</v>
+        <v>1118.60744476831</v>
       </c>
       <c r="AD7" t="n">
-        <v>750494.1386834413</v>
+        <v>903807.7539944449</v>
       </c>
       <c r="AE7" t="n">
-        <v>1026859.190011335</v>
+        <v>1236629.642199198</v>
       </c>
       <c r="AF7" t="n">
         <v>5.936779637256046e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.45833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>928857.1901225774</v>
+        <v>1118607.44476831</v>
       </c>
     </row>
     <row r="8">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>731.2729725604286</v>
+        <v>884.5865878714324</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000.559942543827</v>
+        <v>1210.33039473169</v>
       </c>
       <c r="AC8" t="n">
-        <v>905.0679059221426</v>
+        <v>1094.818160567875</v>
       </c>
       <c r="AD8" t="n">
-        <v>731272.9725604285</v>
+        <v>884586.5878714323</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000559.942543827</v>
+        <v>1210330.39473169</v>
       </c>
       <c r="AF8" t="n">
         <v>6.009060459972664e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.07421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>905067.9059221426</v>
+        <v>1094818.160567875</v>
       </c>
     </row>
     <row r="9">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>726.7082096974665</v>
+        <v>870.5017120624385</v>
       </c>
       <c r="AB9" t="n">
-        <v>994.3142326115975</v>
+        <v>1191.058846268959</v>
       </c>
       <c r="AC9" t="n">
-        <v>899.4182777799361</v>
+        <v>1077.385861642639</v>
       </c>
       <c r="AD9" t="n">
-        <v>726708.2096974665</v>
+        <v>870501.7120624385</v>
       </c>
       <c r="AE9" t="n">
-        <v>994314.2326115975</v>
+        <v>1191058.846268959</v>
       </c>
       <c r="AF9" t="n">
         <v>6.022254578405061e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.00911458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>899418.2777799361</v>
+        <v>1077385.861642639</v>
       </c>
     </row>
     <row r="10">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>728.963081571296</v>
+        <v>872.7565839362683</v>
       </c>
       <c r="AB10" t="n">
-        <v>997.3994477872974</v>
+        <v>1194.144061444659</v>
       </c>
       <c r="AC10" t="n">
-        <v>902.209044349394</v>
+        <v>1080.176628212097</v>
       </c>
       <c r="AD10" t="n">
-        <v>728963.081571296</v>
+        <v>872756.5839362682</v>
       </c>
       <c r="AE10" t="n">
-        <v>997399.4477872974</v>
+        <v>1194144.061444659</v>
       </c>
       <c r="AF10" t="n">
         <v>6.022828235728211e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>31.00260416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>902209.044349394</v>
+        <v>1080176.628212097</v>
       </c>
     </row>
   </sheetData>
@@ -12658,28 +12658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1862.019127115396</v>
+        <v>2132.215493832654</v>
       </c>
       <c r="AB2" t="n">
-        <v>2547.696716205565</v>
+        <v>2917.39130537053</v>
       </c>
       <c r="AC2" t="n">
-        <v>2304.548117325704</v>
+        <v>2638.95957377038</v>
       </c>
       <c r="AD2" t="n">
-        <v>1862019.127115396</v>
+        <v>2132215.493832654</v>
       </c>
       <c r="AE2" t="n">
-        <v>2547696.716205565</v>
+        <v>2917391.30537053</v>
       </c>
       <c r="AF2" t="n">
         <v>3.230481910991857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.56380208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2304548.117325705</v>
+        <v>2638959.57377038</v>
       </c>
     </row>
     <row r="3">
@@ -12764,28 +12764,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1115.8802731438</v>
+        <v>1308.867916393618</v>
       </c>
       <c r="AB3" t="n">
-        <v>1526.796618878578</v>
+        <v>1790.85082638691</v>
       </c>
       <c r="AC3" t="n">
-        <v>1381.081292445319</v>
+        <v>1619.934536991464</v>
       </c>
       <c r="AD3" t="n">
-        <v>1115880.2731438</v>
+        <v>1308867.916393618</v>
       </c>
       <c r="AE3" t="n">
-        <v>1526796.618878578</v>
+        <v>1790850.82638691</v>
       </c>
       <c r="AF3" t="n">
         <v>4.53112179537041e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.89973958333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1381081.292445319</v>
+        <v>1619934.536991464</v>
       </c>
     </row>
     <row r="4">
@@ -12870,28 +12870,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>964.8674435205993</v>
+        <v>1138.485586095853</v>
       </c>
       <c r="AB4" t="n">
-        <v>1320.174203172268</v>
+        <v>1557.726205335601</v>
       </c>
       <c r="AC4" t="n">
-        <v>1194.178630097638</v>
+        <v>1409.059002580831</v>
       </c>
       <c r="AD4" t="n">
-        <v>964867.4435205993</v>
+        <v>1138485.586095853</v>
       </c>
       <c r="AE4" t="n">
-        <v>1320174.203172268</v>
+        <v>1557726.205335601</v>
       </c>
       <c r="AF4" t="n">
         <v>5.012228596898445e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.16927083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1194178.630097638</v>
+        <v>1409059.002580831</v>
       </c>
     </row>
     <row r="5">
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>888.7113199282926</v>
+        <v>1052.678372070116</v>
       </c>
       <c r="AB5" t="n">
-        <v>1215.974035102222</v>
+        <v>1440.320989558476</v>
       </c>
       <c r="AC5" t="n">
-        <v>1099.923179822342</v>
+        <v>1302.858775818219</v>
       </c>
       <c r="AD5" t="n">
-        <v>888711.3199282927</v>
+        <v>1052678.372070116</v>
       </c>
       <c r="AE5" t="n">
-        <v>1215974.035102222</v>
+        <v>1440320.989558476</v>
       </c>
       <c r="AF5" t="n">
         <v>5.265100714302603e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.4765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1099923.179822342</v>
+        <v>1302858.775818219</v>
       </c>
     </row>
     <row r="6">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>844.0648820819425</v>
+        <v>1008.099254031471</v>
       </c>
       <c r="AB6" t="n">
-        <v>1154.88680917902</v>
+        <v>1379.325873566115</v>
       </c>
       <c r="AC6" t="n">
-        <v>1044.666033004791</v>
+        <v>1247.684948088987</v>
       </c>
       <c r="AD6" t="n">
-        <v>844064.8820819425</v>
+        <v>1008099.254031471</v>
       </c>
       <c r="AE6" t="n">
-        <v>1154886.80917902</v>
+        <v>1379325.873566115</v>
       </c>
       <c r="AF6" t="n">
         <v>5.417527911410247e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.5390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1044666.03300479</v>
+        <v>1247684.948088987</v>
       </c>
     </row>
     <row r="7">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>808.8799222290244</v>
+        <v>972.8801287597715</v>
       </c>
       <c r="AB7" t="n">
-        <v>1106.745194857381</v>
+        <v>1331.137512611228</v>
       </c>
       <c r="AC7" t="n">
-        <v>1001.118986786828</v>
+        <v>1204.095616670845</v>
       </c>
       <c r="AD7" t="n">
-        <v>808879.9222290243</v>
+        <v>972880.1287597716</v>
       </c>
       <c r="AE7" t="n">
-        <v>1106745.194857381</v>
+        <v>1331137.512611228</v>
       </c>
       <c r="AF7" t="n">
         <v>5.52176320605757e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.92057291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1001118.986786828</v>
+        <v>1204095.616670845</v>
       </c>
     </row>
     <row r="8">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>787.1957936863096</v>
+        <v>941.5117553947035</v>
       </c>
       <c r="AB8" t="n">
-        <v>1077.076013549003</v>
+        <v>1288.217920298178</v>
       </c>
       <c r="AC8" t="n">
-        <v>974.2813905015651</v>
+        <v>1165.272210010126</v>
       </c>
       <c r="AD8" t="n">
-        <v>787195.7936863096</v>
+        <v>941511.7553947035</v>
       </c>
       <c r="AE8" t="n">
-        <v>1077076.013549003</v>
+        <v>1288217.920298178</v>
       </c>
       <c r="AF8" t="n">
         <v>5.600548844349444e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.47135416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>974281.3905015651</v>
+        <v>1165272.210010126</v>
       </c>
     </row>
     <row r="9">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>770.0143722510247</v>
+        <v>924.3303339594186</v>
       </c>
       <c r="AB9" t="n">
-        <v>1053.567634750429</v>
+        <v>1264.709541499604</v>
       </c>
       <c r="AC9" t="n">
-        <v>953.01661838131</v>
+        <v>1144.007437889871</v>
       </c>
       <c r="AD9" t="n">
-        <v>770014.3722510247</v>
+        <v>924330.3339594186</v>
       </c>
       <c r="AE9" t="n">
-        <v>1053567.634750429</v>
+        <v>1264709.541499604</v>
       </c>
       <c r="AF9" t="n">
         <v>5.652801862185635e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.17838541666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>953016.61838131</v>
+        <v>1144007.437889871</v>
       </c>
     </row>
     <row r="10">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>745.115943729154</v>
+        <v>899.4992252452523</v>
       </c>
       <c r="AB10" t="n">
-        <v>1019.500506405663</v>
+        <v>1230.73452308568</v>
       </c>
       <c r="AC10" t="n">
-        <v>922.2008089522536</v>
+        <v>1113.274947549133</v>
       </c>
       <c r="AD10" t="n">
-        <v>745115.943729154</v>
+        <v>899499.2252452524</v>
       </c>
       <c r="AE10" t="n">
-        <v>1019500.506405663</v>
+        <v>1230734.52308568</v>
       </c>
       <c r="AF10" t="n">
         <v>5.695308203119739e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.95052083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>922200.8089522537</v>
+        <v>1113274.947549134</v>
       </c>
     </row>
     <row r="11">
@@ -13612,28 +13612,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>745.9999463659052</v>
+        <v>900.3832278820037</v>
       </c>
       <c r="AB11" t="n">
-        <v>1020.71003781271</v>
+        <v>1231.944054492727</v>
       </c>
       <c r="AC11" t="n">
-        <v>923.2949043794</v>
+        <v>1114.36904297628</v>
       </c>
       <c r="AD11" t="n">
-        <v>745999.9463659052</v>
+        <v>900383.2278820036</v>
       </c>
       <c r="AE11" t="n">
-        <v>1020710.03781271</v>
+        <v>1231944.054492726</v>
       </c>
       <c r="AF11" t="n">
         <v>5.700723023620897e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.91796875</v>
       </c>
       <c r="AH11" t="n">
-        <v>923294.9043794</v>
+        <v>1114369.04297628</v>
       </c>
     </row>
   </sheetData>
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2583.296080585785</v>
+        <v>2905.435469400454</v>
       </c>
       <c r="AB2" t="n">
-        <v>3534.579664437363</v>
+        <v>3975.344988000435</v>
       </c>
       <c r="AC2" t="n">
-        <v>3197.244342077043</v>
+        <v>3595.943641777255</v>
       </c>
       <c r="AD2" t="n">
-        <v>2583296.080585785</v>
+        <v>2905435.469400454</v>
       </c>
       <c r="AE2" t="n">
-        <v>3534579.664437362</v>
+        <v>3975344.988000435</v>
       </c>
       <c r="AF2" t="n">
         <v>2.482838309640193e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.53776041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3197244.342077043</v>
+        <v>3595943.641777256</v>
       </c>
     </row>
     <row r="3">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1345.584721265612</v>
+        <v>1560.298759917016</v>
       </c>
       <c r="AB3" t="n">
-        <v>1841.088378643881</v>
+        <v>2134.869598841582</v>
       </c>
       <c r="AC3" t="n">
-        <v>1665.377487769877</v>
+        <v>1931.120640636441</v>
       </c>
       <c r="AD3" t="n">
-        <v>1345584.721265611</v>
+        <v>1560298.759917016</v>
       </c>
       <c r="AE3" t="n">
-        <v>1841088.378643881</v>
+        <v>2134869.598841581</v>
       </c>
       <c r="AF3" t="n">
         <v>3.816305593703493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.98567708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1665377.487769877</v>
+        <v>1931120.640636441</v>
       </c>
     </row>
     <row r="4">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1130.092610731347</v>
+        <v>1315.484990063514</v>
       </c>
       <c r="AB4" t="n">
-        <v>1546.242566169943</v>
+        <v>1799.904598506751</v>
       </c>
       <c r="AC4" t="n">
-        <v>1398.671345819755</v>
+        <v>1628.124229807236</v>
       </c>
       <c r="AD4" t="n">
-        <v>1130092.610731347</v>
+        <v>1315484.990063515</v>
       </c>
       <c r="AE4" t="n">
-        <v>1546242.566169943</v>
+        <v>1799904.598506751</v>
       </c>
       <c r="AF4" t="n">
         <v>4.319616888629563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.09635416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1398671.345819755</v>
+        <v>1628124.229807236</v>
       </c>
     </row>
     <row r="5">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1022.656194745603</v>
+        <v>1198.353058908704</v>
       </c>
       <c r="AB5" t="n">
-        <v>1399.243322058091</v>
+        <v>1639.63952280464</v>
       </c>
       <c r="AC5" t="n">
-        <v>1265.701503251203</v>
+        <v>1483.154627996688</v>
       </c>
       <c r="AD5" t="n">
-        <v>1022656.194745603</v>
+        <v>1198353.058908704</v>
       </c>
       <c r="AE5" t="n">
-        <v>1399243.322058091</v>
+        <v>1639639.52280464</v>
       </c>
       <c r="AF5" t="n">
         <v>4.594776804388657e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.86979166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1265701.503251203</v>
+        <v>1483154.627996688</v>
       </c>
     </row>
     <row r="6">
@@ -14333,28 +14333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>969.1425493936541</v>
+        <v>1135.110743998765</v>
       </c>
       <c r="AB6" t="n">
-        <v>1326.023591632142</v>
+        <v>1553.108597490839</v>
       </c>
       <c r="AC6" t="n">
-        <v>1199.469761132569</v>
+        <v>1404.882092747919</v>
       </c>
       <c r="AD6" t="n">
-        <v>969142.5493936541</v>
+        <v>1135110.743998765</v>
       </c>
       <c r="AE6" t="n">
-        <v>1326023.591632142</v>
+        <v>1553108.597490839</v>
       </c>
       <c r="AF6" t="n">
         <v>4.760414213427896e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.65885416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1199469.761132569</v>
+        <v>1404882.092747919</v>
       </c>
     </row>
     <row r="7">
@@ -14439,28 +14439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>928.8640060573211</v>
+        <v>1094.798035243651</v>
       </c>
       <c r="AB7" t="n">
-        <v>1270.912711675451</v>
+        <v>1497.9509709009</v>
       </c>
       <c r="AC7" t="n">
-        <v>1149.618586210339</v>
+        <v>1354.98863262551</v>
       </c>
       <c r="AD7" t="n">
-        <v>928864.0060573211</v>
+        <v>1094798.035243651</v>
       </c>
       <c r="AE7" t="n">
-        <v>1270912.711675451</v>
+        <v>1497950.9709009</v>
       </c>
       <c r="AF7" t="n">
         <v>4.874120726022441e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.87760416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1149618.586210339</v>
+        <v>1354988.63262551</v>
       </c>
     </row>
     <row r="8">
@@ -14545,28 +14545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>907.9847969325472</v>
+        <v>1073.817340892391</v>
       </c>
       <c r="AB8" t="n">
-        <v>1242.344856625238</v>
+        <v>1469.244259286598</v>
       </c>
       <c r="AC8" t="n">
-        <v>1123.777207150882</v>
+        <v>1329.021649277554</v>
       </c>
       <c r="AD8" t="n">
-        <v>907984.7969325471</v>
+        <v>1073817.340892391</v>
       </c>
       <c r="AE8" t="n">
-        <v>1242344.856625238</v>
+        <v>1469244.259286598</v>
       </c>
       <c r="AF8" t="n">
         <v>4.950417303737395e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>33</v>
+        <v>32.36979166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1123777.207150882</v>
+        <v>1329021.649277554</v>
       </c>
     </row>
     <row r="9">
@@ -14651,28 +14651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>877.4514863693319</v>
+        <v>1043.35135013688</v>
       </c>
       <c r="AB9" t="n">
-        <v>1200.567834078054</v>
+        <v>1427.559346670255</v>
       </c>
       <c r="AC9" t="n">
-        <v>1085.987325001182</v>
+        <v>1291.315086216172</v>
       </c>
       <c r="AD9" t="n">
-        <v>877451.4863693318</v>
+        <v>1043351.350136881</v>
       </c>
       <c r="AE9" t="n">
-        <v>1200567.834078054</v>
+        <v>1427559.346670255</v>
       </c>
       <c r="AF9" t="n">
         <v>5.022529875577659e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.90104166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1085987.325001182</v>
+        <v>1291315.086216172</v>
       </c>
     </row>
     <row r="10">
@@ -14757,28 +14757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>861.6982797832303</v>
+        <v>1017.903639411569</v>
       </c>
       <c r="AB10" t="n">
-        <v>1179.013601844525</v>
+        <v>1392.740666182122</v>
       </c>
       <c r="AC10" t="n">
-        <v>1066.490198440466</v>
+        <v>1259.819451725501</v>
       </c>
       <c r="AD10" t="n">
-        <v>861698.2797832303</v>
+        <v>1017903.639411569</v>
       </c>
       <c r="AE10" t="n">
-        <v>1179013.601844524</v>
+        <v>1392740.666182122</v>
       </c>
       <c r="AF10" t="n">
         <v>5.067323350236115e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>31.62109375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1066490.198440466</v>
+        <v>1259819.451725501</v>
       </c>
     </row>
     <row r="11">
@@ -14863,28 +14863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>848.206991969008</v>
+        <v>1004.310866370862</v>
       </c>
       <c r="AB11" t="n">
-        <v>1160.554226663494</v>
+        <v>1374.142434437002</v>
       </c>
       <c r="AC11" t="n">
-        <v>1049.792560118817</v>
+        <v>1242.996209115354</v>
       </c>
       <c r="AD11" t="n">
-        <v>848206.991969008</v>
+        <v>1004310.866370862</v>
       </c>
       <c r="AE11" t="n">
-        <v>1160554.226663494</v>
+        <v>1374142.434437002</v>
       </c>
       <c r="AF11" t="n">
         <v>5.107686701027253e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>32</v>
+        <v>31.37369791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1049792.560118817</v>
+        <v>1242996.209115354</v>
       </c>
     </row>
     <row r="12">
@@ -14969,28 +14969,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>831.8288135660845</v>
+        <v>987.9326879679385</v>
       </c>
       <c r="AB12" t="n">
-        <v>1138.144880418378</v>
+        <v>1351.733088191887</v>
       </c>
       <c r="AC12" t="n">
-        <v>1029.52193042762</v>
+        <v>1222.725579424157</v>
       </c>
       <c r="AD12" t="n">
-        <v>831828.8135660845</v>
+        <v>987932.6879679385</v>
       </c>
       <c r="AE12" t="n">
-        <v>1138144.880418378</v>
+        <v>1351733.088191886</v>
       </c>
       <c r="AF12" t="n">
         <v>5.147803933825761e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>31.12630208333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1029521.93042762</v>
+        <v>1222725.579424157</v>
       </c>
     </row>
     <row r="13">
@@ -15075,28 +15075,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>810.254773170234</v>
+        <v>966.4259673797919</v>
       </c>
       <c r="AB13" t="n">
-        <v>1108.626326569286</v>
+        <v>1322.306644273636</v>
       </c>
       <c r="AC13" t="n">
-        <v>1002.820585928335</v>
+        <v>1196.107554013191</v>
       </c>
       <c r="AD13" t="n">
-        <v>810254.7731702339</v>
+        <v>966425.9673797919</v>
       </c>
       <c r="AE13" t="n">
-        <v>1108626.326569286</v>
+        <v>1322306.644273636</v>
       </c>
       <c r="AF13" t="n">
         <v>5.17241573308865e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.9765625</v>
       </c>
       <c r="AH13" t="n">
-        <v>1002820.585928335</v>
+        <v>1196107.554013191</v>
       </c>
     </row>
     <row r="14">
@@ -15181,28 +15181,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>803.1695216317845</v>
+        <v>959.3407158413427</v>
       </c>
       <c r="AB14" t="n">
-        <v>1098.931972835143</v>
+        <v>1312.612290539492</v>
       </c>
       <c r="AC14" t="n">
-        <v>994.0514477084672</v>
+        <v>1187.338415793323</v>
       </c>
       <c r="AD14" t="n">
-        <v>803169.5216317845</v>
+        <v>959340.7158413427</v>
       </c>
       <c r="AE14" t="n">
-        <v>1098931.972835143</v>
+        <v>1312612.290539492</v>
       </c>
       <c r="AF14" t="n">
         <v>5.184967750712723e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.90494791666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>994051.4477084673</v>
+        <v>1187338.415793323</v>
       </c>
     </row>
     <row r="15">
@@ -15287,28 +15287,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>802.9695830888254</v>
+        <v>959.1407772983839</v>
       </c>
       <c r="AB15" t="n">
-        <v>1098.658408100001</v>
+        <v>1312.33872580435</v>
       </c>
       <c r="AC15" t="n">
-        <v>993.8039916076962</v>
+        <v>1187.090959692552</v>
       </c>
       <c r="AD15" t="n">
-        <v>802969.5830888255</v>
+        <v>959140.7772983839</v>
       </c>
       <c r="AE15" t="n">
-        <v>1098658.408100001</v>
+        <v>1312338.72580435</v>
       </c>
       <c r="AF15" t="n">
         <v>5.19235129049159e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>31</v>
+        <v>30.859375</v>
       </c>
       <c r="AH15" t="n">
-        <v>993803.9916076962</v>
+        <v>1187090.959692552</v>
       </c>
     </row>
   </sheetData>
@@ -15584,28 +15584,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1336.773587656459</v>
+        <v>1565.213229978624</v>
       </c>
       <c r="AB2" t="n">
-        <v>1829.032596920059</v>
+        <v>2141.593793590991</v>
       </c>
       <c r="AC2" t="n">
-        <v>1654.47229293338</v>
+        <v>1937.203087676433</v>
       </c>
       <c r="AD2" t="n">
-        <v>1336773.587656459</v>
+        <v>1565213.229978624</v>
       </c>
       <c r="AE2" t="n">
-        <v>1829032.596920059</v>
+        <v>2141593.793590991</v>
       </c>
       <c r="AF2" t="n">
         <v>4.292139560962879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.54296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1654472.29293338</v>
+        <v>1937203.087676433</v>
       </c>
     </row>
     <row r="3">
@@ -15690,28 +15690,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>912.1233511421713</v>
+        <v>1083.411387140176</v>
       </c>
       <c r="AB3" t="n">
-        <v>1248.007409074972</v>
+        <v>1482.371256622265</v>
       </c>
       <c r="AC3" t="n">
-        <v>1128.899333542256</v>
+        <v>1340.895824411361</v>
       </c>
       <c r="AD3" t="n">
-        <v>912123.3511421713</v>
+        <v>1083411.387140176</v>
       </c>
       <c r="AE3" t="n">
-        <v>1248007.409074972</v>
+        <v>1482371.256622266</v>
       </c>
       <c r="AF3" t="n">
         <v>5.542134311935983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.04166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1128899.333542256</v>
+        <v>1340895.824411361</v>
       </c>
     </row>
     <row r="4">
@@ -15796,28 +15796,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>803.5720665220584</v>
+        <v>965.3061951120764</v>
       </c>
       <c r="AB4" t="n">
-        <v>1099.482752513043</v>
+        <v>1320.774522456081</v>
       </c>
       <c r="AC4" t="n">
-        <v>994.5496617469324</v>
+        <v>1194.721655751557</v>
       </c>
       <c r="AD4" t="n">
-        <v>803572.0665220584</v>
+        <v>965306.1951120764</v>
       </c>
       <c r="AE4" t="n">
-        <v>1099482.752513043</v>
+        <v>1320774.522456081</v>
       </c>
       <c r="AF4" t="n">
         <v>5.981810914327848e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.39192708333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>994549.6617469324</v>
+        <v>1194721.655751557</v>
       </c>
     </row>
     <row r="5">
@@ -15902,28 +15902,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>751.1615999516472</v>
+        <v>903.4101519712397</v>
       </c>
       <c r="AB5" t="n">
-        <v>1027.772439964807</v>
+        <v>1236.085625570085</v>
       </c>
       <c r="AC5" t="n">
-        <v>929.6832807822445</v>
+        <v>1118.115348322747</v>
       </c>
       <c r="AD5" t="n">
-        <v>751161.5999516472</v>
+        <v>903410.1519712397</v>
       </c>
       <c r="AE5" t="n">
-        <v>1027772.439964807</v>
+        <v>1236085.625570085</v>
       </c>
       <c r="AF5" t="n">
         <v>6.214689170584252e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.14192708333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>929683.2807822445</v>
+        <v>1118115.348322747</v>
       </c>
     </row>
     <row r="6">
@@ -16008,28 +16008,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>712.2177745504579</v>
+        <v>864.4321611512697</v>
       </c>
       <c r="AB6" t="n">
-        <v>974.4877799705793</v>
+        <v>1182.75421894261</v>
       </c>
       <c r="AC6" t="n">
-        <v>881.4840339523756</v>
+        <v>1069.873816292698</v>
       </c>
       <c r="AD6" t="n">
-        <v>712217.7745504578</v>
+        <v>864432.1611512697</v>
       </c>
       <c r="AE6" t="n">
-        <v>974487.7799705792</v>
+        <v>1182754.21894261</v>
       </c>
       <c r="AF6" t="n">
         <v>6.352452460517222e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.4453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>881484.0339523756</v>
+        <v>1069873.816292698</v>
       </c>
     </row>
     <row r="7">
@@ -16114,28 +16114,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>696.9077149378534</v>
+        <v>849.1221015386652</v>
       </c>
       <c r="AB7" t="n">
-        <v>953.5398809764536</v>
+        <v>1161.806319948484</v>
       </c>
       <c r="AC7" t="n">
-        <v>862.5353730376885</v>
+        <v>1050.925155378011</v>
       </c>
       <c r="AD7" t="n">
-        <v>696907.7149378534</v>
+        <v>849122.1015386652</v>
       </c>
       <c r="AE7" t="n">
-        <v>953539.8809764535</v>
+        <v>1161806.319948484</v>
       </c>
       <c r="AF7" t="n">
         <v>6.416578357167537e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.1328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>862535.3730376884</v>
+        <v>1050925.155378011</v>
       </c>
     </row>
     <row r="8">
@@ -16220,28 +16220,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>698.8924612900903</v>
+        <v>851.106847890902</v>
       </c>
       <c r="AB8" t="n">
-        <v>956.2554984964132</v>
+        <v>1164.521937468444</v>
       </c>
       <c r="AC8" t="n">
-        <v>864.9918158329363</v>
+        <v>1053.381598173259</v>
       </c>
       <c r="AD8" t="n">
-        <v>698892.4612900903</v>
+        <v>851106.8478909021</v>
       </c>
       <c r="AE8" t="n">
-        <v>956255.4984964132</v>
+        <v>1164521.937468444</v>
       </c>
       <c r="AF8" t="n">
         <v>6.415657889751504e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.1328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>864991.8158329362</v>
+        <v>1053381.598173259</v>
       </c>
     </row>
   </sheetData>
@@ -16517,28 +16517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1024.48107889929</v>
+        <v>1221.799194414388</v>
       </c>
       <c r="AB2" t="n">
-        <v>1401.740209065371</v>
+        <v>1671.719559774012</v>
       </c>
       <c r="AC2" t="n">
-        <v>1267.960090866911</v>
+        <v>1512.172991262318</v>
       </c>
       <c r="AD2" t="n">
-        <v>1024481.078899289</v>
+        <v>1221799.194414387</v>
       </c>
       <c r="AE2" t="n">
-        <v>1401740.209065371</v>
+        <v>1671719.559774012</v>
       </c>
       <c r="AF2" t="n">
         <v>5.480879246352023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.43880208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1267960.090866911</v>
+        <v>1512172.991262318</v>
       </c>
     </row>
     <row r="3">
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>759.6630069627934</v>
+        <v>919.4115544220848</v>
       </c>
       <c r="AB3" t="n">
-        <v>1039.404440093065</v>
+        <v>1257.979450335386</v>
       </c>
       <c r="AC3" t="n">
-        <v>940.2051391438757</v>
+        <v>1137.919657180623</v>
       </c>
       <c r="AD3" t="n">
-        <v>759663.0069627934</v>
+        <v>919411.5544220848</v>
       </c>
       <c r="AE3" t="n">
-        <v>1039404.440093065</v>
+        <v>1257979.450335386</v>
       </c>
       <c r="AF3" t="n">
         <v>6.664274688976217e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.08203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>940205.1391438757</v>
+        <v>1137919.657180623</v>
       </c>
     </row>
     <row r="4">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>679.7565165022484</v>
+        <v>830.1041305928928</v>
       </c>
       <c r="AB4" t="n">
-        <v>930.0728546193859</v>
+        <v>1135.785093086815</v>
       </c>
       <c r="AC4" t="n">
-        <v>841.308006739961</v>
+        <v>1027.387357886999</v>
       </c>
       <c r="AD4" t="n">
-        <v>679756.5165022484</v>
+        <v>830104.1305928929</v>
       </c>
       <c r="AE4" t="n">
-        <v>930072.8546193859</v>
+        <v>1135785.093086815</v>
       </c>
       <c r="AF4" t="n">
         <v>7.077695561473172e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.08984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>841308.006739961</v>
+        <v>1027387.357886999</v>
       </c>
     </row>
     <row r="5">
@@ -16835,28 +16835,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>651.0638592081413</v>
+        <v>801.4787931064901</v>
       </c>
       <c r="AB5" t="n">
-        <v>890.8142950788864</v>
+        <v>1096.618643477157</v>
       </c>
       <c r="AC5" t="n">
-        <v>805.7962290222724</v>
+        <v>991.9588992576291</v>
       </c>
       <c r="AD5" t="n">
-        <v>651063.8592081412</v>
+        <v>801478.7931064902</v>
       </c>
       <c r="AE5" t="n">
-        <v>890814.2950788864</v>
+        <v>1096618.643477157</v>
       </c>
       <c r="AF5" t="n">
         <v>7.20433841102287e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.5234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>805796.2290222724</v>
+        <v>991958.8992576292</v>
       </c>
     </row>
     <row r="6">
@@ -16941,28 +16941,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>653.3540612759264</v>
+        <v>803.7689951742755</v>
       </c>
       <c r="AB6" t="n">
-        <v>893.9478505846147</v>
+        <v>1099.752198982885</v>
       </c>
       <c r="AC6" t="n">
-        <v>808.6307223885068</v>
+        <v>994.7933926238634</v>
       </c>
       <c r="AD6" t="n">
-        <v>653354.0612759264</v>
+        <v>803768.9951742755</v>
       </c>
       <c r="AE6" t="n">
-        <v>893947.8505846147</v>
+        <v>1099752.198982885</v>
       </c>
       <c r="AF6" t="n">
         <v>7.204687289396287e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.5234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>808630.7223885068</v>
+        <v>994793.3926238634</v>
       </c>
     </row>
   </sheetData>
@@ -31195,28 +31195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>836.8508117459188</v>
+        <v>1013.596872873608</v>
       </c>
       <c r="AB2" t="n">
-        <v>1145.016199882951</v>
+        <v>1386.847958203753</v>
       </c>
       <c r="AC2" t="n">
-        <v>1035.737460806451</v>
+        <v>1254.489135526121</v>
       </c>
       <c r="AD2" t="n">
-        <v>836850.8117459188</v>
+        <v>1013596.872873608</v>
       </c>
       <c r="AE2" t="n">
-        <v>1145016.199882951</v>
+        <v>1386847.958203753</v>
       </c>
       <c r="AF2" t="n">
         <v>6.671661140178651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.23567708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1035737.460806451</v>
+        <v>1254489.135526121</v>
       </c>
     </row>
     <row r="3">
@@ -31301,28 +31301,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>643.5126998871016</v>
+        <v>801.6799805684099</v>
       </c>
       <c r="AB3" t="n">
-        <v>880.4824657622024</v>
+        <v>1096.89391703832</v>
       </c>
       <c r="AC3" t="n">
-        <v>796.4504549947591</v>
+        <v>992.2079010964637</v>
       </c>
       <c r="AD3" t="n">
-        <v>643512.6998871015</v>
+        <v>801679.9805684099</v>
       </c>
       <c r="AE3" t="n">
-        <v>880482.4657622024</v>
+        <v>1096893.91703832</v>
       </c>
       <c r="AF3" t="n">
         <v>7.7969260447237e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.71484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>796450.4549947591</v>
+        <v>992207.9010964638</v>
       </c>
     </row>
     <row r="4">
@@ -31407,28 +31407,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>625.4313058311407</v>
+        <v>774.259464705873</v>
       </c>
       <c r="AB4" t="n">
-        <v>855.7427047200293</v>
+        <v>1059.375957527414</v>
       </c>
       <c r="AC4" t="n">
-        <v>774.0718220239784</v>
+        <v>958.2706029844918</v>
       </c>
       <c r="AD4" t="n">
-        <v>625431.3058311406</v>
+        <v>774259.464705873</v>
       </c>
       <c r="AE4" t="n">
-        <v>855742.7047200294</v>
+        <v>1059375.957527414</v>
       </c>
       <c r="AF4" t="n">
         <v>7.961484282853547e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.03776041666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>774071.8220239783</v>
+        <v>958270.6029844919</v>
       </c>
     </row>
   </sheetData>
@@ -31704,28 +31704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>577.1395680426706</v>
+        <v>741.1227955368056</v>
       </c>
       <c r="AB2" t="n">
-        <v>789.6678185967354</v>
+        <v>1014.036904883627</v>
       </c>
       <c r="AC2" t="n">
-        <v>714.3030302956065</v>
+        <v>917.2586458912679</v>
       </c>
       <c r="AD2" t="n">
-        <v>577139.5680426706</v>
+        <v>741122.7955368056</v>
       </c>
       <c r="AE2" t="n">
-        <v>789667.8185967354</v>
+        <v>1014036.904883627</v>
       </c>
       <c r="AF2" t="n">
         <v>9.82659945416347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.3359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>714303.0302956065</v>
+        <v>917258.6458912678</v>
       </c>
     </row>
     <row r="3">
@@ -31810,28 +31810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>580.6622195961914</v>
+        <v>744.6454470903265</v>
       </c>
       <c r="AB3" t="n">
-        <v>794.4876658606809</v>
+        <v>1018.856752147573</v>
       </c>
       <c r="AC3" t="n">
-        <v>718.6628781013792</v>
+        <v>921.6184936970405</v>
       </c>
       <c r="AD3" t="n">
-        <v>580662.2195961914</v>
+        <v>744645.4470903265</v>
       </c>
       <c r="AE3" t="n">
-        <v>794487.6658606809</v>
+        <v>1018856.752147573</v>
       </c>
       <c r="AF3" t="n">
         <v>9.82659945416347e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.3359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>718662.8781013791</v>
+        <v>921618.4936970406</v>
       </c>
     </row>
   </sheetData>
@@ -32107,28 +32107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1716.783304460337</v>
+        <v>1976.399404004935</v>
       </c>
       <c r="AB2" t="n">
-        <v>2348.978656296626</v>
+        <v>2704.196857147513</v>
       </c>
       <c r="AC2" t="n">
-        <v>2124.795430151925</v>
+        <v>2446.11210446548</v>
       </c>
       <c r="AD2" t="n">
-        <v>1716783.304460337</v>
+        <v>1976399.404004935</v>
       </c>
       <c r="AE2" t="n">
-        <v>2348978.656296626</v>
+        <v>2704196.857147512</v>
       </c>
       <c r="AF2" t="n">
         <v>3.460002899158356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.37630208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2124795.430151925</v>
+        <v>2446112.104465479</v>
       </c>
     </row>
     <row r="3">
@@ -32213,28 +32213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1068.155441465072</v>
+        <v>1250.876390309494</v>
       </c>
       <c r="AB3" t="n">
-        <v>1461.497398704766</v>
+        <v>1711.504261993045</v>
       </c>
       <c r="AC3" t="n">
-        <v>1322.014138196865</v>
+        <v>1548.160697339747</v>
       </c>
       <c r="AD3" t="n">
-        <v>1068155.441465072</v>
+        <v>1250876.390309494</v>
       </c>
       <c r="AE3" t="n">
-        <v>1461497.398704766</v>
+        <v>1711504.261993045</v>
       </c>
       <c r="AF3" t="n">
         <v>4.750857629498471e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.15104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1322014.138196865</v>
+        <v>1548160.697339747</v>
       </c>
     </row>
     <row r="4">
@@ -32319,28 +32319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>920.1614318433096</v>
+        <v>1093.295099884438</v>
       </c>
       <c r="AB4" t="n">
-        <v>1259.005465705362</v>
+        <v>1495.894588437597</v>
       </c>
       <c r="AC4" t="n">
-        <v>1138.847751083711</v>
+        <v>1353.128508418353</v>
       </c>
       <c r="AD4" t="n">
-        <v>920161.4318433097</v>
+        <v>1093295.099884438</v>
       </c>
       <c r="AE4" t="n">
-        <v>1259005.465705362</v>
+        <v>1495894.588437597</v>
       </c>
       <c r="AF4" t="n">
         <v>5.218260064745626e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.73307291666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1138847.751083711</v>
+        <v>1353128.508418353</v>
       </c>
     </row>
     <row r="5">
@@ -32425,28 +32425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>855.88357355858</v>
+        <v>1019.329486599787</v>
       </c>
       <c r="AB5" t="n">
-        <v>1171.057664261225</v>
+        <v>1394.69157320898</v>
       </c>
       <c r="AC5" t="n">
-        <v>1059.293564373887</v>
+        <v>1261.584166923831</v>
       </c>
       <c r="AD5" t="n">
-        <v>855883.57355858</v>
+        <v>1019329.486599787</v>
       </c>
       <c r="AE5" t="n">
-        <v>1171057.664261224</v>
+        <v>1394691.57320898</v>
       </c>
       <c r="AF5" t="n">
         <v>5.475206132484235e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.09895833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1059293.564373887</v>
+        <v>1261584.166923831</v>
       </c>
     </row>
     <row r="6">
@@ -32531,28 +32531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>814.6031295120147</v>
+        <v>968.4627727797854</v>
       </c>
       <c r="AB6" t="n">
-        <v>1114.575939552054</v>
+        <v>1325.093491279419</v>
       </c>
       <c r="AC6" t="n">
-        <v>1008.202376198361</v>
+        <v>1198.628428252106</v>
       </c>
       <c r="AD6" t="n">
-        <v>814603.1295120147</v>
+        <v>968462.7727797853</v>
       </c>
       <c r="AE6" t="n">
-        <v>1114575.939552054</v>
+        <v>1325093.491279419</v>
       </c>
       <c r="AF6" t="n">
         <v>5.616902284682448e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1008202.376198361</v>
+        <v>1198628.428252106</v>
       </c>
     </row>
     <row r="7">
@@ -32637,28 +32637,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>781.6445750828709</v>
+        <v>945.1236425130016</v>
       </c>
       <c r="AB7" t="n">
-        <v>1069.480591353298</v>
+        <v>1293.159863598647</v>
       </c>
       <c r="AC7" t="n">
-        <v>967.4108647399761</v>
+        <v>1169.742501178059</v>
       </c>
       <c r="AD7" t="n">
-        <v>781644.5750828709</v>
+        <v>945123.6425130017</v>
       </c>
       <c r="AE7" t="n">
-        <v>1069480.591353298</v>
+        <v>1293159.863598647</v>
       </c>
       <c r="AF7" t="n">
         <v>5.716006076789648e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.70572916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>967410.8647399761</v>
+        <v>1169742.501178059</v>
       </c>
     </row>
     <row r="8">
@@ -32743,28 +32743,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>758.8579209041898</v>
+        <v>912.6833987531797</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038.302885829793</v>
+        <v>1248.773690923911</v>
       </c>
       <c r="AC8" t="n">
-        <v>939.2087156734497</v>
+        <v>1129.592482527015</v>
       </c>
       <c r="AD8" t="n">
-        <v>758857.9209041898</v>
+        <v>912683.3987531797</v>
       </c>
       <c r="AE8" t="n">
-        <v>1038302.885829793</v>
+        <v>1248773.690923911</v>
       </c>
       <c r="AF8" t="n">
         <v>5.794509642447597e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.27604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>939208.7156734497</v>
+        <v>1129592.482527015</v>
       </c>
     </row>
     <row r="9">
@@ -32849,28 +32849,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>743.8484886162562</v>
+        <v>888.1218621105904</v>
       </c>
       <c r="AB9" t="n">
-        <v>1017.766318404023</v>
+        <v>1215.167512910999</v>
       </c>
       <c r="AC9" t="n">
-        <v>920.6321294195419</v>
+        <v>1099.193630977088</v>
       </c>
       <c r="AD9" t="n">
-        <v>743848.4886162562</v>
+        <v>888121.8621105904</v>
       </c>
       <c r="AE9" t="n">
-        <v>1017766.318404023</v>
+        <v>1215167.512910998</v>
       </c>
       <c r="AF9" t="n">
         <v>5.842948012747183e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>920632.1294195419</v>
+        <v>1099193.630977088</v>
       </c>
     </row>
     <row r="10">
@@ -32955,28 +32955,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>733.0617752845276</v>
+        <v>886.9545729412218</v>
       </c>
       <c r="AB10" t="n">
-        <v>1003.007461347346</v>
+        <v>1213.570376372305</v>
       </c>
       <c r="AC10" t="n">
-        <v>907.2818369661679</v>
+        <v>1097.748922908052</v>
       </c>
       <c r="AD10" t="n">
-        <v>733061.7752845276</v>
+        <v>886954.5729412219</v>
       </c>
       <c r="AE10" t="n">
-        <v>1003007.461347346</v>
+        <v>1213570.376372305</v>
       </c>
       <c r="AF10" t="n">
         <v>5.848515641517251e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>907281.8369661679</v>
+        <v>1097748.922908052</v>
       </c>
     </row>
     <row r="11">
@@ -33061,28 +33061,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>734.940911633956</v>
+        <v>888.8337092906502</v>
       </c>
       <c r="AB11" t="n">
-        <v>1005.578578602279</v>
+        <v>1216.141493627237</v>
       </c>
       <c r="AC11" t="n">
-        <v>909.6075703988755</v>
+        <v>1100.07465634076</v>
       </c>
       <c r="AD11" t="n">
-        <v>734940.911633956</v>
+        <v>888833.7092906502</v>
       </c>
       <c r="AE11" t="n">
-        <v>1005578.578602278</v>
+        <v>1216141.493627237</v>
       </c>
       <c r="AF11" t="n">
         <v>5.848237260078746e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.98958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>909607.5703988755</v>
+        <v>1100074.65634076</v>
       </c>
     </row>
   </sheetData>
@@ -33358,28 +33358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2371.979482338304</v>
+        <v>2683.47367287546</v>
       </c>
       <c r="AB2" t="n">
-        <v>3245.446972084787</v>
+        <v>3671.647065731562</v>
       </c>
       <c r="AC2" t="n">
-        <v>2935.706068082325</v>
+        <v>3321.230222967025</v>
       </c>
       <c r="AD2" t="n">
-        <v>2371979.482338304</v>
+        <v>2683473.67287546</v>
       </c>
       <c r="AE2" t="n">
-        <v>3245446.972084787</v>
+        <v>3671647.065731562</v>
       </c>
       <c r="AF2" t="n">
         <v>2.652285581950072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.74479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2935706.068082325</v>
+        <v>3321230.222967025</v>
       </c>
     </row>
     <row r="3">
@@ -33464,28 +33464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1293.556824528655</v>
+        <v>1497.918243954328</v>
       </c>
       <c r="AB3" t="n">
-        <v>1769.901515019568</v>
+        <v>2049.517824867297</v>
       </c>
       <c r="AC3" t="n">
-        <v>1600.984598498478</v>
+        <v>1853.914720178295</v>
       </c>
       <c r="AD3" t="n">
-        <v>1293556.824528655</v>
+        <v>1497918.243954328</v>
       </c>
       <c r="AE3" t="n">
-        <v>1769901.515019568</v>
+        <v>2049517.824867297</v>
       </c>
       <c r="AF3" t="n">
         <v>3.975409838499521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.19791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1600984.598498478</v>
+        <v>1853914.720178295</v>
       </c>
     </row>
     <row r="4">
@@ -33570,28 +33570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1082.888320711153</v>
+        <v>1267.844402358611</v>
       </c>
       <c r="AB4" t="n">
-        <v>1481.655574058015</v>
+        <v>1734.720644654506</v>
       </c>
       <c r="AC4" t="n">
-        <v>1340.248445586576</v>
+        <v>1569.161341024396</v>
       </c>
       <c r="AD4" t="n">
-        <v>1082888.320711153</v>
+        <v>1267844.402358611</v>
       </c>
       <c r="AE4" t="n">
-        <v>1481655.574058014</v>
+        <v>1734720.644654506</v>
       </c>
       <c r="AF4" t="n">
         <v>4.47497728593435e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.59505208333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1340248.445586576</v>
+        <v>1569161.341024396</v>
       </c>
     </row>
     <row r="5">
@@ -33676,28 +33676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>992.0680243370435</v>
+        <v>1167.287777191541</v>
       </c>
       <c r="AB5" t="n">
-        <v>1357.391237850261</v>
+        <v>1597.134633855714</v>
       </c>
       <c r="AC5" t="n">
-        <v>1227.843723220399</v>
+        <v>1444.706345993061</v>
       </c>
       <c r="AD5" t="n">
-        <v>992068.0243370435</v>
+        <v>1167287.777191541</v>
       </c>
       <c r="AE5" t="n">
-        <v>1357391.237850261</v>
+        <v>1597134.633855714</v>
       </c>
       <c r="AF5" t="n">
         <v>4.742872216205294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1227843.723220399</v>
+        <v>1444706.345993061</v>
       </c>
     </row>
     <row r="6">
@@ -33782,28 +33782,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>941.3033596009388</v>
+        <v>1106.719463854773</v>
       </c>
       <c r="AB6" t="n">
-        <v>1287.932783979376</v>
+        <v>1514.262395462948</v>
       </c>
       <c r="AC6" t="n">
-        <v>1165.014286701399</v>
+        <v>1369.743317720584</v>
       </c>
       <c r="AD6" t="n">
-        <v>941303.3596009389</v>
+        <v>1106719.463854773</v>
       </c>
       <c r="AE6" t="n">
-        <v>1287932.783979376</v>
+        <v>1514262.395462948</v>
       </c>
       <c r="AF6" t="n">
         <v>4.903357629832394e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.3984375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1165014.286701399</v>
+        <v>1369743.317720584</v>
       </c>
     </row>
     <row r="7">
@@ -33888,28 +33888,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>902.2384341370475</v>
+        <v>1067.721858198585</v>
       </c>
       <c r="AB7" t="n">
-        <v>1234.482429536801</v>
+        <v>1460.904150951216</v>
       </c>
       <c r="AC7" t="n">
-        <v>1116.66515906878</v>
+        <v>1321.477509176284</v>
       </c>
       <c r="AD7" t="n">
-        <v>902238.4341370475</v>
+        <v>1067721.858198585</v>
       </c>
       <c r="AE7" t="n">
-        <v>1234482.429536801</v>
+        <v>1460904.150951216</v>
       </c>
       <c r="AF7" t="n">
         <v>5.018313482540207e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.63020833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1116665.15906878</v>
+        <v>1321477.509176284</v>
       </c>
     </row>
     <row r="8">
@@ -33994,28 +33994,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>879.7801696501425</v>
+        <v>1035.494110529797</v>
       </c>
       <c r="AB8" t="n">
-        <v>1203.754041277115</v>
+        <v>1416.808724802897</v>
       </c>
       <c r="AC8" t="n">
-        <v>1088.869445057034</v>
+        <v>1281.590488611242</v>
       </c>
       <c r="AD8" t="n">
-        <v>879780.1696501425</v>
+        <v>1035494.110529797</v>
       </c>
       <c r="AE8" t="n">
-        <v>1203754.041277115</v>
+        <v>1416808.724802897</v>
       </c>
       <c r="AF8" t="n">
         <v>5.102580901921208e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>33</v>
+        <v>32.09635416666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1088869.445057034</v>
+        <v>1281590.488611242</v>
       </c>
     </row>
     <row r="9">
@@ -34100,28 +34100,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>850.8512508479445</v>
+        <v>1016.300509490702</v>
       </c>
       <c r="AB9" t="n">
-        <v>1164.172218318124</v>
+        <v>1390.54719309929</v>
       </c>
       <c r="AC9" t="n">
-        <v>1053.065255727812</v>
+        <v>1257.835320635136</v>
       </c>
       <c r="AD9" t="n">
-        <v>850851.2508479445</v>
+        <v>1016300.509490702</v>
       </c>
       <c r="AE9" t="n">
-        <v>1164172.218318124</v>
+        <v>1390547.19309929</v>
       </c>
       <c r="AF9" t="n">
         <v>5.163706224039367e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.71223958333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1053065.255727812</v>
+        <v>1257835.320635136</v>
       </c>
     </row>
     <row r="10">
@@ -34206,28 +34206,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>834.2657589105696</v>
+        <v>989.9455343714429</v>
       </c>
       <c r="AB10" t="n">
-        <v>1141.479216549144</v>
+        <v>1354.487153441677</v>
       </c>
       <c r="AC10" t="n">
-        <v>1032.538042197835</v>
+        <v>1225.216800551863</v>
       </c>
       <c r="AD10" t="n">
-        <v>834265.7589105696</v>
+        <v>989945.534371443</v>
       </c>
       <c r="AE10" t="n">
-        <v>1141479.216549144</v>
+        <v>1354487.153441678</v>
       </c>
       <c r="AF10" t="n">
         <v>5.210996596706914e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>31.42578125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1032538.042197835</v>
+        <v>1225216.800551863</v>
       </c>
     </row>
     <row r="11">
@@ -34312,28 +34312,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>820.5535211584021</v>
+        <v>976.2332966192755</v>
       </c>
       <c r="AB11" t="n">
-        <v>1122.717527915393</v>
+        <v>1335.725464807927</v>
       </c>
       <c r="AC11" t="n">
-        <v>1015.566942795094</v>
+        <v>1208.245701149122</v>
       </c>
       <c r="AD11" t="n">
-        <v>820553.5211584021</v>
+        <v>976233.2966192755</v>
       </c>
       <c r="AE11" t="n">
-        <v>1122717.527915393</v>
+        <v>1335725.464807927</v>
       </c>
       <c r="AF11" t="n">
         <v>5.246464376207574e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>32</v>
+        <v>31.21744791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1015566.942795094</v>
+        <v>1208245.701149122</v>
       </c>
     </row>
     <row r="12">
@@ -34418,28 +34418,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>807.1728236442194</v>
+        <v>962.8525991050928</v>
       </c>
       <c r="AB12" t="n">
-        <v>1104.409467261776</v>
+        <v>1317.41740415431</v>
       </c>
       <c r="AC12" t="n">
-        <v>999.0061777547344</v>
+        <v>1191.684936108762</v>
       </c>
       <c r="AD12" t="n">
-        <v>807172.8236442194</v>
+        <v>962852.5991050928</v>
       </c>
       <c r="AE12" t="n">
-        <v>1104409.467261776</v>
+        <v>1317417.40415431</v>
       </c>
       <c r="AF12" t="n">
         <v>5.279416710353578e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>31.02213541666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>999006.1777547344</v>
+        <v>1191684.936108762</v>
       </c>
     </row>
     <row r="13">
@@ -34524,28 +34524,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>789.0179495778459</v>
+        <v>944.7650448464238</v>
       </c>
       <c r="AB13" t="n">
-        <v>1079.569167627648</v>
+        <v>1292.669214451023</v>
       </c>
       <c r="AC13" t="n">
-        <v>976.5366014541074</v>
+        <v>1169.298678896454</v>
       </c>
       <c r="AD13" t="n">
-        <v>789017.9495778459</v>
+        <v>944765.0448464239</v>
       </c>
       <c r="AE13" t="n">
-        <v>1079569.167627648</v>
+        <v>1292669.214451023</v>
       </c>
       <c r="AF13" t="n">
         <v>5.301301084939091e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.89192708333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>976536.6014541074</v>
+        <v>1169298.678896454</v>
       </c>
     </row>
     <row r="14">
@@ -34630,28 +34630,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>789.466959676499</v>
+        <v>945.2140549450769</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080.183523053552</v>
+        <v>1293.283569876927</v>
       </c>
       <c r="AC14" t="n">
-        <v>977.0923236604169</v>
+        <v>1169.854401102763</v>
       </c>
       <c r="AD14" t="n">
-        <v>789466.959676499</v>
+        <v>945214.0549450769</v>
       </c>
       <c r="AE14" t="n">
-        <v>1080183.523053552</v>
+        <v>1293283.569876927</v>
       </c>
       <c r="AF14" t="n">
         <v>5.301049540403626e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.89192708333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>977092.3236604169</v>
+        <v>1169854.401102763</v>
       </c>
     </row>
   </sheetData>
@@ -34927,28 +34927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>567.0815119542788</v>
+        <v>738.6110643325038</v>
       </c>
       <c r="AB2" t="n">
-        <v>775.9059425264799</v>
+        <v>1010.600243440141</v>
       </c>
       <c r="AC2" t="n">
-        <v>701.8545683625817</v>
+        <v>914.1499745925637</v>
       </c>
       <c r="AD2" t="n">
-        <v>567081.5119542788</v>
+        <v>738611.0643325038</v>
       </c>
       <c r="AE2" t="n">
-        <v>775905.9425264798</v>
+        <v>1010600.243440141</v>
       </c>
       <c r="AF2" t="n">
         <v>1.076769731566084e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.90104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>701854.5683625818</v>
+        <v>914149.9745925637</v>
       </c>
     </row>
   </sheetData>
@@ -35224,28 +35224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1127.710406677397</v>
+        <v>1335.357294382231</v>
       </c>
       <c r="AB2" t="n">
-        <v>1542.983129487902</v>
+        <v>1827.094761979811</v>
       </c>
       <c r="AC2" t="n">
-        <v>1395.7229852</v>
+        <v>1652.71940224006</v>
       </c>
       <c r="AD2" t="n">
-        <v>1127710.406677397</v>
+        <v>1335357.294382231</v>
       </c>
       <c r="AE2" t="n">
-        <v>1542983.129487902</v>
+        <v>1827094.76197981</v>
       </c>
       <c r="AF2" t="n">
         <v>5.025626834576909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.09895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1395722.9852</v>
+        <v>1652719.40224006</v>
       </c>
     </row>
     <row r="3">
@@ -35330,28 +35330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>804.818361741982</v>
+        <v>974.7601378124629</v>
       </c>
       <c r="AB3" t="n">
-        <v>1101.187988615607</v>
+        <v>1333.709823937266</v>
       </c>
       <c r="AC3" t="n">
-        <v>996.0921525091818</v>
+        <v>1206.422430214187</v>
       </c>
       <c r="AD3" t="n">
-        <v>804818.3617419821</v>
+        <v>974760.1378124629</v>
       </c>
       <c r="AE3" t="n">
-        <v>1101187.988615607</v>
+        <v>1333709.823937266</v>
       </c>
       <c r="AF3" t="n">
         <v>6.233627035579739e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.74609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>996092.1525091818</v>
+        <v>1206422.430214187</v>
       </c>
     </row>
     <row r="4">
@@ -35436,28 +35436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>718.6369651727839</v>
+        <v>879.0341481562648</v>
       </c>
       <c r="AB4" t="n">
-        <v>983.2707997747492</v>
+        <v>1202.733301757046</v>
       </c>
       <c r="AC4" t="n">
-        <v>889.4288146734814</v>
+        <v>1087.946123484144</v>
       </c>
       <c r="AD4" t="n">
-        <v>718636.9651727839</v>
+        <v>879034.1481562648</v>
       </c>
       <c r="AE4" t="n">
-        <v>983270.7997747492</v>
+        <v>1202733.301757046</v>
       </c>
       <c r="AF4" t="n">
         <v>6.66579235122355e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.49348958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>889428.8146734814</v>
+        <v>1087946.123484144</v>
       </c>
     </row>
     <row r="5">
@@ -35542,28 +35542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>671.8711633565813</v>
+        <v>822.8594038983283</v>
       </c>
       <c r="AB5" t="n">
-        <v>919.2837665682551</v>
+        <v>1125.872538408527</v>
       </c>
       <c r="AC5" t="n">
-        <v>831.5486141098501</v>
+        <v>1018.420843514849</v>
       </c>
       <c r="AD5" t="n">
-        <v>671871.1633565812</v>
+        <v>822859.4038983283</v>
       </c>
       <c r="AE5" t="n">
-        <v>919283.7665682551</v>
+        <v>1125872.538408527</v>
       </c>
       <c r="AF5" t="n">
         <v>6.879712519013365e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>831548.61410985</v>
+        <v>1018420.843514849</v>
       </c>
     </row>
     <row r="6">
@@ -35648,28 +35648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>667.4934421094921</v>
+        <v>818.4816826512395</v>
       </c>
       <c r="AB6" t="n">
-        <v>913.293975226557</v>
+        <v>1119.882747066829</v>
       </c>
       <c r="AC6" t="n">
-        <v>826.1304800470785</v>
+        <v>1013.002709452078</v>
       </c>
       <c r="AD6" t="n">
-        <v>667493.4421094921</v>
+        <v>818481.6826512394</v>
       </c>
       <c r="AE6" t="n">
-        <v>913293.975226557</v>
+        <v>1119882.747066829</v>
       </c>
       <c r="AF6" t="n">
         <v>6.905995090172612e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.36067708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>826130.4800470786</v>
+        <v>1013002.709452078</v>
       </c>
     </row>
   </sheetData>
@@ -35945,28 +35945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1456.994483447635</v>
+        <v>1695.732531530424</v>
       </c>
       <c r="AB2" t="n">
-        <v>1993.524130313146</v>
+        <v>2320.176060079361</v>
       </c>
       <c r="AC2" t="n">
-        <v>1803.264985244749</v>
+        <v>2098.741713292939</v>
       </c>
       <c r="AD2" t="n">
-        <v>1456994.483447635</v>
+        <v>1695732.531530424</v>
       </c>
       <c r="AE2" t="n">
-        <v>1993524.130313146</v>
+        <v>2320176.060079361</v>
       </c>
       <c r="AF2" t="n">
         <v>3.982953852326836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.42447916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1803264.985244749</v>
+        <v>2098741.713292939</v>
       </c>
     </row>
     <row r="3">
@@ -36051,28 +36051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>958.599001389236</v>
+        <v>1140.108847003777</v>
       </c>
       <c r="AB3" t="n">
-        <v>1311.597444103988</v>
+        <v>1559.947222523039</v>
       </c>
       <c r="AC3" t="n">
-        <v>1186.420424877277</v>
+        <v>1411.068049005117</v>
       </c>
       <c r="AD3" t="n">
-        <v>958599.0013892361</v>
+        <v>1140108.847003777</v>
       </c>
       <c r="AE3" t="n">
-        <v>1311597.444103988</v>
+        <v>1559947.222523039</v>
       </c>
       <c r="AF3" t="n">
         <v>5.24375352473316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.77734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1186420.424877277</v>
+        <v>1411068.049005118</v>
       </c>
     </row>
     <row r="4">
@@ -36157,28 +36157,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>839.2276825255506</v>
+        <v>1011.148414772189</v>
       </c>
       <c r="AB4" t="n">
-        <v>1148.268339343781</v>
+        <v>1383.497869811043</v>
       </c>
       <c r="AC4" t="n">
-        <v>1038.679220641546</v>
+        <v>1251.458774867732</v>
       </c>
       <c r="AD4" t="n">
-        <v>839227.6825255506</v>
+        <v>1011148.414772189</v>
       </c>
       <c r="AE4" t="n">
-        <v>1148268.339343781</v>
+        <v>1383497.869811043</v>
       </c>
       <c r="AF4" t="n">
         <v>5.702630097232547e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.82161458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1038679.220641546</v>
+        <v>1251458.774867732</v>
       </c>
     </row>
     <row r="5">
@@ -36263,28 +36263,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>785.210078966297</v>
+        <v>947.5085434561083</v>
       </c>
       <c r="AB5" t="n">
-        <v>1074.359071065532</v>
+        <v>1296.422990283409</v>
       </c>
       <c r="AC5" t="n">
-        <v>971.8237491954629</v>
+        <v>1172.694199631855</v>
       </c>
       <c r="AD5" t="n">
-        <v>785210.078966297</v>
+        <v>947508.5434561083</v>
       </c>
       <c r="AE5" t="n">
-        <v>1074359.071065532</v>
+        <v>1296422.99028341</v>
       </c>
       <c r="AF5" t="n">
         <v>5.934290187416228e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>971823.7491954629</v>
+        <v>1172694.199631855</v>
       </c>
     </row>
     <row r="6">
@@ -36369,28 +36369,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>742.5946581855454</v>
+        <v>895.4738253715004</v>
       </c>
       <c r="AB6" t="n">
-        <v>1016.05077229363</v>
+        <v>1225.226793390304</v>
       </c>
       <c r="AC6" t="n">
-        <v>919.0803126221408</v>
+        <v>1108.292867845737</v>
       </c>
       <c r="AD6" t="n">
-        <v>742594.6581855455</v>
+        <v>895473.8253715005</v>
       </c>
       <c r="AE6" t="n">
-        <v>1016050.77229363</v>
+        <v>1225226.793390304</v>
       </c>
       <c r="AF6" t="n">
         <v>6.087742779123577e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.6796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>919080.3126221409</v>
+        <v>1108292.867845737</v>
       </c>
     </row>
     <row r="7">
@@ -36475,28 +36475,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>718.1605982099787</v>
+        <v>870.9382801694486</v>
       </c>
       <c r="AB7" t="n">
-        <v>982.619013480412</v>
+        <v>1191.656178012996</v>
       </c>
       <c r="AC7" t="n">
-        <v>888.839233948288</v>
+        <v>1077.926184883385</v>
       </c>
       <c r="AD7" t="n">
-        <v>718160.5982099788</v>
+        <v>870938.2801694486</v>
       </c>
       <c r="AE7" t="n">
-        <v>982619.0134804121</v>
+        <v>1191656.178012996</v>
       </c>
       <c r="AF7" t="n">
         <v>6.184317190120866e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.18489583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>888839.233948288</v>
+        <v>1077926.184883385</v>
       </c>
     </row>
     <row r="8">
@@ -36581,28 +36581,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>711.6561232431892</v>
+        <v>864.433805202659</v>
       </c>
       <c r="AB8" t="n">
-        <v>973.7193038736675</v>
+        <v>1182.756468406252</v>
       </c>
       <c r="AC8" t="n">
-        <v>880.7889001355902</v>
+        <v>1069.875851070687</v>
       </c>
       <c r="AD8" t="n">
-        <v>711656.1232431892</v>
+        <v>864433.805202659</v>
       </c>
       <c r="AE8" t="n">
-        <v>973719.3038736675</v>
+        <v>1182756.468406252</v>
       </c>
       <c r="AF8" t="n">
         <v>6.21009011575511e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.0546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>880788.9001355902</v>
+        <v>1069875.851070687</v>
       </c>
     </row>
     <row r="9">
@@ -36687,28 +36687,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>713.9405880330206</v>
+        <v>866.7182699924905</v>
       </c>
       <c r="AB9" t="n">
-        <v>976.8450093825884</v>
+        <v>1185.882173915172</v>
       </c>
       <c r="AC9" t="n">
-        <v>883.6162926976949</v>
+        <v>1072.703243632792</v>
       </c>
       <c r="AD9" t="n">
-        <v>713940.5880330206</v>
+        <v>866718.2699924905</v>
       </c>
       <c r="AE9" t="n">
-        <v>976845.0093825884</v>
+        <v>1185882.173915172</v>
       </c>
       <c r="AF9" t="n">
         <v>6.21009011575511e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.0546875</v>
       </c>
       <c r="AH9" t="n">
-        <v>883616.292697695</v>
+        <v>1072703.243632792</v>
       </c>
     </row>
   </sheetData>
